--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_25_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_25_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>611960.2822660786</v>
+        <v>611366.4155548386</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736552</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.7754565731329</v>
+        <v>11.30283095546739</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>131.6224207170399</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>104.6301972121012</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>32.23475461124631</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>113.5452377002289</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>131.6224207170399</v>
       </c>
       <c r="X11" t="n">
-        <v>131.6224207170396</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.6224207170396</v>
+        <v>131.6224207170399</v>
       </c>
     </row>
     <row r="12">
@@ -1506,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>6.04742266336018</v>
+        <v>6.047422663360351</v>
       </c>
       <c r="W12" t="n">
-        <v>18.83846641623387</v>
+        <v>18.83846641623404</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>9.884882276754395</v>
+        <v>9.884882276754565</v>
       </c>
       <c r="U13" t="n">
-        <v>64.24262914177298</v>
+        <v>64.24262914177315</v>
       </c>
       <c r="V13" t="n">
-        <v>38.06370773437243</v>
+        <v>38.0637077343726</v>
       </c>
       <c r="W13" t="n">
-        <v>63.23059380498569</v>
+        <v>63.23059380498586</v>
       </c>
       <c r="X13" t="n">
-        <v>8.875695800788804</v>
+        <v>8.875695800788975</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>110.6904970612608</v>
+        <v>101.7754565731335</v>
       </c>
       <c r="C14" t="n">
-        <v>131.6224207170396</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>131.6224207170399</v>
       </c>
       <c r="E14" t="n">
-        <v>131.6224207170396</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>104.630197212101</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,13 +1661,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>32.2347546112463</v>
+        <v>32.23475461124627</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>113.5452377002289</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>131.6224207170399</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>6.04742266336018</v>
+        <v>6.047422663360152</v>
       </c>
       <c r="W15" t="n">
-        <v>18.83846641623387</v>
+        <v>18.83846641623384</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>9.884882276754395</v>
+        <v>9.884882276754366</v>
       </c>
       <c r="U16" t="n">
-        <v>64.24262914177298</v>
+        <v>64.24262914177295</v>
       </c>
       <c r="V16" t="n">
-        <v>38.06370773437243</v>
+        <v>38.0637077343724</v>
       </c>
       <c r="W16" t="n">
-        <v>63.23059380498569</v>
+        <v>63.23059380498566</v>
       </c>
       <c r="X16" t="n">
-        <v>8.875695800788804</v>
+        <v>8.875695800788776</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>60.18608130266745</v>
       </c>
       <c r="C17" t="n">
-        <v>48.19739826034919</v>
+        <v>48.19739826035023</v>
       </c>
       <c r="D17" t="n">
         <v>39.17870230487716</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.692458542846015</v>
+        <v>3.692458542846566</v>
       </c>
       <c r="W17" t="n">
         <v>28.99255802080347</v>
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60.18608130266745</v>
+        <v>60.18608130266756</v>
       </c>
       <c r="C23" t="n">
-        <v>48.19739826034919</v>
+        <v>48.1973982603493</v>
       </c>
       <c r="D23" t="n">
-        <v>39.17870230487716</v>
+        <v>39.17870230487728</v>
       </c>
       <c r="E23" t="n">
-        <v>60.9208398747827</v>
+        <v>60.92083987478281</v>
       </c>
       <c r="F23" t="n">
-        <v>80.09265596275986</v>
+        <v>80.09265596275998</v>
       </c>
       <c r="G23" t="n">
-        <v>81.55736574630237</v>
+        <v>81.55736574630248</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.692458542846566</v>
+        <v>3.69245854284668</v>
       </c>
       <c r="W23" t="n">
-        <v>28.99255802080347</v>
+        <v>28.99255802080359</v>
       </c>
       <c r="X23" t="n">
-        <v>48.29281625355009</v>
+        <v>48.2928162535502</v>
       </c>
       <c r="Y23" t="n">
-        <v>59.68941404974885</v>
+        <v>59.68941404974896</v>
       </c>
     </row>
     <row r="24">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>180.9748428097535</v>
+        <v>180.9748428097536</v>
       </c>
       <c r="C26" t="n">
         <v>168.9861597674353</v>
@@ -2561,7 +2561,7 @@
         <v>159.9674638119633</v>
       </c>
       <c r="E26" t="n">
-        <v>181.7096013818688</v>
+        <v>181.7096013818689</v>
       </c>
       <c r="F26" t="n">
         <v>200.881417469846</v>
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>10.93598234970378</v>
+        <v>10.93598234970385</v>
       </c>
       <c r="U26" t="n">
-        <v>43.17073696095008</v>
+        <v>43.17073696095014</v>
       </c>
       <c r="V26" t="n">
         <v>124.4812200499327</v>
@@ -2621,7 +2621,7 @@
         <v>169.0815777606362</v>
       </c>
       <c r="Y26" t="n">
-        <v>180.4781755568349</v>
+        <v>180.478175556835</v>
       </c>
     </row>
     <row r="27">
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>7.165089697960967</v>
+        <v>7.165089697961024</v>
       </c>
       <c r="V27" t="n">
-        <v>16.98340501306396</v>
+        <v>16.98340501306402</v>
       </c>
       <c r="W27" t="n">
-        <v>29.77444876593765</v>
+        <v>29.77444876593771</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>20.82086462645817</v>
+        <v>20.82086462645823</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17861149147676</v>
+        <v>75.17861149147681</v>
       </c>
       <c r="V28" t="n">
-        <v>48.99969008407621</v>
+        <v>48.99969008407626</v>
       </c>
       <c r="W28" t="n">
-        <v>74.16657615468947</v>
+        <v>74.16657615468952</v>
       </c>
       <c r="X28" t="n">
-        <v>19.81167815049258</v>
+        <v>19.81167815049264</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.68654590656027</v>
+        <v>10.68654590656033</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>180.9748428097535</v>
+        <v>180.9748428097537</v>
       </c>
       <c r="C29" t="n">
-        <v>168.9861597674353</v>
+        <v>168.9861597674355</v>
       </c>
       <c r="D29" t="n">
-        <v>159.9674638119633</v>
+        <v>159.9674638119634</v>
       </c>
       <c r="E29" t="n">
-        <v>181.7096013818688</v>
+        <v>181.709601381869</v>
       </c>
       <c r="F29" t="n">
-        <v>200.881417469846</v>
+        <v>200.8814174698461</v>
       </c>
       <c r="G29" t="n">
-        <v>202.3461272533885</v>
+        <v>202.3461272533886</v>
       </c>
       <c r="H29" t="n">
-        <v>115.5661795618048</v>
+        <v>115.5661795618049</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,22 +2843,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>10.93598234970378</v>
+        <v>10.93598234970395</v>
       </c>
       <c r="U29" t="n">
-        <v>43.17073696095008</v>
+        <v>43.17073696095025</v>
       </c>
       <c r="V29" t="n">
-        <v>124.4812200499327</v>
+        <v>124.4812200499328</v>
       </c>
       <c r="W29" t="n">
-        <v>149.7813195278896</v>
+        <v>149.7813195278897</v>
       </c>
       <c r="X29" t="n">
-        <v>169.0815777606362</v>
+        <v>169.0815777606363</v>
       </c>
       <c r="Y29" t="n">
-        <v>180.4781755568349</v>
+        <v>180.4781755568351</v>
       </c>
     </row>
     <row r="30">
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>7.165089697960967</v>
+        <v>7.165089697961138</v>
       </c>
       <c r="V30" t="n">
-        <v>16.98340501306396</v>
+        <v>16.98340501306413</v>
       </c>
       <c r="W30" t="n">
-        <v>29.77444876593765</v>
+        <v>29.77444876593782</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>20.82086462645817</v>
+        <v>20.82086462645835</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17861149147676</v>
+        <v>75.17861149147693</v>
       </c>
       <c r="V31" t="n">
-        <v>48.99969008407621</v>
+        <v>48.99969008407638</v>
       </c>
       <c r="W31" t="n">
-        <v>74.16657615468947</v>
+        <v>74.16657615468964</v>
       </c>
       <c r="X31" t="n">
-        <v>19.81167815049258</v>
+        <v>19.81167815049275</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.68654590656027</v>
+        <v>10.68654590656044</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>180.9748428097535</v>
+        <v>180.9748428097537</v>
       </c>
       <c r="C32" t="n">
-        <v>168.9861597674353</v>
+        <v>168.9861597674355</v>
       </c>
       <c r="D32" t="n">
-        <v>159.9674638119633</v>
+        <v>159.9674638119634</v>
       </c>
       <c r="E32" t="n">
-        <v>181.7096013818688</v>
+        <v>181.709601381869</v>
       </c>
       <c r="F32" t="n">
-        <v>200.881417469846</v>
+        <v>200.8814174698461</v>
       </c>
       <c r="G32" t="n">
-        <v>202.3461272533885</v>
+        <v>202.3461272533886</v>
       </c>
       <c r="H32" t="n">
-        <v>115.5661795618048</v>
+        <v>115.5661795618049</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>10.93598234970378</v>
+        <v>10.93598234970395</v>
       </c>
       <c r="U32" t="n">
-        <v>43.17073696095008</v>
+        <v>43.17073696095025</v>
       </c>
       <c r="V32" t="n">
-        <v>124.4812200499327</v>
+        <v>124.4812200499328</v>
       </c>
       <c r="W32" t="n">
-        <v>149.7813195278896</v>
+        <v>149.7813195278897</v>
       </c>
       <c r="X32" t="n">
-        <v>169.0815777606362</v>
+        <v>169.0815777606363</v>
       </c>
       <c r="Y32" t="n">
-        <v>180.4781755568349</v>
+        <v>180.4781755568351</v>
       </c>
     </row>
     <row r="33">
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>7.165089697960967</v>
+        <v>7.165089697961138</v>
       </c>
       <c r="V33" t="n">
-        <v>16.98340501306396</v>
+        <v>16.98340501306413</v>
       </c>
       <c r="W33" t="n">
-        <v>29.77444876593765</v>
+        <v>29.77444876593782</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,22 +3238,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>20.82086462645817</v>
+        <v>20.82086462645835</v>
       </c>
       <c r="U34" t="n">
-        <v>75.17861149147676</v>
+        <v>75.17861149147693</v>
       </c>
       <c r="V34" t="n">
-        <v>48.99969008407621</v>
+        <v>48.99969008407638</v>
       </c>
       <c r="W34" t="n">
-        <v>74.16657615468947</v>
+        <v>74.16657615468964</v>
       </c>
       <c r="X34" t="n">
-        <v>19.81167815049258</v>
+        <v>19.81167815049275</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.68654590656027</v>
+        <v>10.68654590656044</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>139.3194838123384</v>
+        <v>139.3194838123383</v>
       </c>
       <c r="C35" t="n">
         <v>127.3308007700201</v>
       </c>
       <c r="D35" t="n">
-        <v>118.3121048145481</v>
+        <v>118.312104814548</v>
       </c>
       <c r="E35" t="n">
         <v>140.0542423844536</v>
       </c>
       <c r="F35" t="n">
-        <v>159.2260584724308</v>
+        <v>159.2260584724307</v>
       </c>
       <c r="G35" t="n">
-        <v>160.6907682559733</v>
+        <v>160.6907682559732</v>
       </c>
       <c r="H35" t="n">
-        <v>73.91082056438961</v>
+        <v>73.91082056438954</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.515377963534917</v>
+        <v>1.51537796353487</v>
       </c>
       <c r="V35" t="n">
-        <v>82.8258610525175</v>
+        <v>82.82586105251744</v>
       </c>
       <c r="W35" t="n">
-        <v>108.1259605304744</v>
+        <v>108.1259605304743</v>
       </c>
       <c r="X35" t="n">
         <v>127.426218763221</v>
       </c>
       <c r="Y35" t="n">
-        <v>138.8228165594198</v>
+        <v>138.8228165594197</v>
       </c>
     </row>
     <row r="36">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>33.52325249406159</v>
+        <v>33.52325249406154</v>
       </c>
       <c r="V37" t="n">
-        <v>7.344331086661043</v>
+        <v>7.344331086660986</v>
       </c>
       <c r="W37" t="n">
-        <v>32.5112171572743</v>
+        <v>32.51121715727425</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>139.3194838123384</v>
+        <v>139.3194838123382</v>
       </c>
       <c r="C38" t="n">
-        <v>127.3308007700201</v>
+        <v>127.3308007700199</v>
       </c>
       <c r="D38" t="n">
-        <v>118.3121048145481</v>
+        <v>118.3121048145479</v>
       </c>
       <c r="E38" t="n">
-        <v>140.0542423844536</v>
+        <v>140.0542423844535</v>
       </c>
       <c r="F38" t="n">
-        <v>159.2260584724308</v>
+        <v>159.2260584724306</v>
       </c>
       <c r="G38" t="n">
-        <v>160.6907682559733</v>
+        <v>160.6907682559731</v>
       </c>
       <c r="H38" t="n">
-        <v>73.91082056438961</v>
+        <v>73.91082056438943</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.515377963534917</v>
+        <v>1.515377963534756</v>
       </c>
       <c r="V38" t="n">
-        <v>82.8258610525175</v>
+        <v>82.82586105251733</v>
       </c>
       <c r="W38" t="n">
-        <v>108.1259605304744</v>
+        <v>108.1259605304742</v>
       </c>
       <c r="X38" t="n">
-        <v>127.426218763221</v>
+        <v>127.4262187632208</v>
       </c>
       <c r="Y38" t="n">
-        <v>138.8228165594198</v>
+        <v>138.8228165594196</v>
       </c>
     </row>
     <row r="39">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>33.52325249406159</v>
+        <v>33.52325249406142</v>
       </c>
       <c r="V40" t="n">
-        <v>7.344331086661043</v>
+        <v>7.344331086660873</v>
       </c>
       <c r="W40" t="n">
-        <v>32.5112171572743</v>
+        <v>32.51121715727413</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>139.3194838123383</v>
+        <v>139.3194838123382</v>
       </c>
       <c r="C41" t="n">
-        <v>127.3308007700201</v>
+        <v>127.33080077002</v>
       </c>
       <c r="D41" t="n">
         <v>118.312104814548</v>
       </c>
       <c r="E41" t="n">
-        <v>140.0542423844536</v>
+        <v>140.0542423844535</v>
       </c>
       <c r="F41" t="n">
         <v>159.2260584724307</v>
@@ -3755,7 +3755,7 @@
         <v>160.6907682559732</v>
       </c>
       <c r="H41" t="n">
-        <v>73.91082056438954</v>
+        <v>73.91082056438947</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.51537796353487</v>
+        <v>1.515377963534785</v>
       </c>
       <c r="V41" t="n">
-        <v>82.82586105251744</v>
+        <v>82.82586105251735</v>
       </c>
       <c r="W41" t="n">
         <v>108.1259605304743</v>
       </c>
       <c r="X41" t="n">
-        <v>127.426218763221</v>
+        <v>127.4262187632209</v>
       </c>
       <c r="Y41" t="n">
-        <v>138.8228165594197</v>
+        <v>138.8228165594196</v>
       </c>
     </row>
     <row r="42">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>33.52325249406154</v>
+        <v>33.52325249406145</v>
       </c>
       <c r="V43" t="n">
-        <v>7.344331086660986</v>
+        <v>7.344331086660901</v>
       </c>
       <c r="W43" t="n">
-        <v>32.51121715727425</v>
+        <v>32.51121715727416</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.51537796353486</v>
+        <v>1.51537796353487</v>
       </c>
       <c r="V44" t="n">
         <v>82.82586105251744</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.52979365736317</v>
+        <v>249.1688016665966</v>
       </c>
       <c r="C11" t="n">
-        <v>10.52979365736317</v>
+        <v>249.1688016665966</v>
       </c>
       <c r="D11" t="n">
-        <v>10.52979365736317</v>
+        <v>249.1688016665966</v>
       </c>
       <c r="E11" t="n">
-        <v>10.52979365736317</v>
+        <v>249.1688016665966</v>
       </c>
       <c r="F11" t="n">
-        <v>10.52979365736317</v>
+        <v>249.1688016665966</v>
       </c>
       <c r="G11" t="n">
-        <v>10.52979365736317</v>
+        <v>116.2168615483745</v>
       </c>
       <c r="H11" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="I11" t="n">
-        <v>76.8987041667709</v>
+        <v>76.89870416677076</v>
       </c>
       <c r="J11" t="n">
-        <v>188.5041073150231</v>
+        <v>76.89870416677076</v>
       </c>
       <c r="K11" t="n">
-        <v>188.5041073150231</v>
+        <v>176.7338571453052</v>
       </c>
       <c r="L11" t="n">
-        <v>188.5041073150231</v>
+        <v>278.1554130405412</v>
       </c>
       <c r="M11" t="n">
-        <v>188.5041073150231</v>
+        <v>392.1862207792096</v>
       </c>
       <c r="N11" t="n">
-        <v>304.6035112090224</v>
+        <v>392.1862207792096</v>
       </c>
       <c r="O11" t="n">
-        <v>318.828510926765</v>
+        <v>503.1218763939519</v>
       </c>
       <c r="P11" t="n">
-        <v>318.828510926765</v>
+        <v>503.1218763939519</v>
       </c>
       <c r="Q11" t="n">
-        <v>407.9679878302232</v>
+        <v>503.1218763939519</v>
       </c>
       <c r="R11" t="n">
-        <v>481.5587050619469</v>
+        <v>503.1218763939519</v>
       </c>
       <c r="S11" t="n">
-        <v>526.4896828681584</v>
+        <v>526.4896828681597</v>
       </c>
       <c r="T11" t="n">
-        <v>526.4896828681584</v>
+        <v>526.4896828681595</v>
       </c>
       <c r="U11" t="n">
-        <v>493.9293246749803</v>
+        <v>526.4896828681595</v>
       </c>
       <c r="V11" t="n">
-        <v>379.2371653818198</v>
+        <v>526.4896828681595</v>
       </c>
       <c r="W11" t="n">
-        <v>379.2371653818198</v>
+        <v>393.5377427499374</v>
       </c>
       <c r="X11" t="n">
-        <v>246.2852252635981</v>
+        <v>393.5377427499374</v>
       </c>
       <c r="Y11" t="n">
-        <v>113.3332851453763</v>
+        <v>260.5858026317152</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="C12" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="D12" t="n">
-        <v>35.66705535392282</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="E12" t="n">
-        <v>35.66705535392282</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="F12" t="n">
-        <v>35.66705535392282</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="G12" t="n">
-        <v>35.66705535392282</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="H12" t="n">
-        <v>35.66705535392282</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="I12" t="n">
-        <v>35.66705535392282</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="J12" t="n">
-        <v>35.66705535392282</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="K12" t="n">
-        <v>35.66705535392282</v>
+        <v>35.66705535392319</v>
       </c>
       <c r="L12" t="n">
-        <v>35.66705535392282</v>
+        <v>35.66705535392319</v>
       </c>
       <c r="M12" t="n">
-        <v>35.66705535392282</v>
+        <v>35.66705535392319</v>
       </c>
       <c r="N12" t="n">
-        <v>35.66705535392282</v>
+        <v>35.66705535392319</v>
       </c>
       <c r="O12" t="n">
-        <v>35.66705535392282</v>
+        <v>35.66705535392319</v>
       </c>
       <c r="P12" t="n">
-        <v>35.66705535392282</v>
+        <v>35.66705535392319</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.66705535392282</v>
+        <v>35.66705535392319</v>
       </c>
       <c r="R12" t="n">
-        <v>35.66705535392282</v>
+        <v>35.66705535392319</v>
       </c>
       <c r="S12" t="n">
-        <v>35.66705535392282</v>
+        <v>35.66705535392319</v>
       </c>
       <c r="T12" t="n">
-        <v>35.66705535392282</v>
+        <v>35.66705535392319</v>
       </c>
       <c r="U12" t="n">
-        <v>35.66705535392282</v>
+        <v>35.66705535392319</v>
       </c>
       <c r="V12" t="n">
-        <v>29.55854761315496</v>
+        <v>29.55854761315516</v>
       </c>
       <c r="W12" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="X12" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="C13" t="n">
-        <v>10.52979365736317</v>
+        <v>62.15278313901717</v>
       </c>
       <c r="D13" t="n">
-        <v>10.52979365736317</v>
+        <v>62.15278313901717</v>
       </c>
       <c r="E13" t="n">
-        <v>10.52979365736317</v>
+        <v>62.15278313901717</v>
       </c>
       <c r="F13" t="n">
-        <v>10.52979365736317</v>
+        <v>62.15278313901717</v>
       </c>
       <c r="G13" t="n">
-        <v>10.52979365736317</v>
+        <v>62.15278313901717</v>
       </c>
       <c r="H13" t="n">
-        <v>10.52979365736317</v>
+        <v>62.15278313901717</v>
       </c>
       <c r="I13" t="n">
-        <v>10.52979365736317</v>
+        <v>62.15278313901717</v>
       </c>
       <c r="J13" t="n">
-        <v>10.52979365736317</v>
+        <v>62.15278313901717</v>
       </c>
       <c r="K13" t="n">
-        <v>10.52979365736317</v>
+        <v>192.4589796488867</v>
       </c>
       <c r="L13" t="n">
-        <v>10.52979365736317</v>
+        <v>196.6888934136007</v>
       </c>
       <c r="M13" t="n">
-        <v>10.52979365736317</v>
+        <v>196.6888934136007</v>
       </c>
       <c r="N13" t="n">
-        <v>10.52979365736317</v>
+        <v>196.6888934136007</v>
       </c>
       <c r="O13" t="n">
-        <v>10.52979365736317</v>
+        <v>196.6888934136007</v>
       </c>
       <c r="P13" t="n">
-        <v>10.52979365736317</v>
+        <v>196.6888934136007</v>
       </c>
       <c r="Q13" t="n">
-        <v>123.9501913682647</v>
+        <v>196.6888934136007</v>
       </c>
       <c r="R13" t="n">
-        <v>196.6888934135998</v>
+        <v>196.6888934136007</v>
       </c>
       <c r="S13" t="n">
-        <v>196.6888934135998</v>
+        <v>196.6888934136007</v>
       </c>
       <c r="T13" t="n">
-        <v>186.7041638411206</v>
+        <v>186.7041638411214</v>
       </c>
       <c r="U13" t="n">
-        <v>121.8126192534712</v>
+        <v>121.8126192534717</v>
       </c>
       <c r="V13" t="n">
-        <v>83.36442962279196</v>
+        <v>83.36442962279231</v>
       </c>
       <c r="W13" t="n">
-        <v>19.49514295108924</v>
+        <v>19.49514295108943</v>
       </c>
       <c r="X13" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.1207417848179</v>
+        <v>143.4817337755854</v>
       </c>
       <c r="C14" t="n">
-        <v>249.1688016665961</v>
+        <v>143.4817337755854</v>
       </c>
       <c r="D14" t="n">
-        <v>249.1688016665961</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="E14" t="n">
-        <v>116.2168615483743</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="F14" t="n">
-        <v>116.2168615483743</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="G14" t="n">
-        <v>116.2168615483743</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="H14" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="I14" t="n">
-        <v>76.8987041667709</v>
+        <v>76.89870416677095</v>
       </c>
       <c r="J14" t="n">
-        <v>76.8987041667709</v>
+        <v>188.5041073150232</v>
       </c>
       <c r="K14" t="n">
-        <v>76.8987041667709</v>
+        <v>195.3661697771876</v>
       </c>
       <c r="L14" t="n">
-        <v>76.8987041667709</v>
+        <v>195.3661697771876</v>
       </c>
       <c r="M14" t="n">
-        <v>76.8987041667709</v>
+        <v>309.3969775158562</v>
       </c>
       <c r="N14" t="n">
-        <v>109.3218449976544</v>
+        <v>309.3969775158562</v>
       </c>
       <c r="O14" t="n">
-        <v>220.2575006123968</v>
+        <v>309.3969775158562</v>
       </c>
       <c r="P14" t="n">
-        <v>318.828510926765</v>
+        <v>407.9679878302243</v>
       </c>
       <c r="Q14" t="n">
-        <v>407.9679878302232</v>
+        <v>407.9679878302243</v>
       </c>
       <c r="R14" t="n">
-        <v>481.5587050619469</v>
+        <v>481.5587050619481</v>
       </c>
       <c r="S14" t="n">
-        <v>526.4896828681584</v>
+        <v>526.4896828681597</v>
       </c>
       <c r="T14" t="n">
-        <v>526.4896828681584</v>
+        <v>526.4896828681597</v>
       </c>
       <c r="U14" t="n">
-        <v>493.9293246749803</v>
+        <v>493.9293246749816</v>
       </c>
       <c r="V14" t="n">
-        <v>493.9293246749803</v>
+        <v>379.2371653818212</v>
       </c>
       <c r="W14" t="n">
-        <v>493.9293246749803</v>
+        <v>246.285225263599</v>
       </c>
       <c r="X14" t="n">
-        <v>493.9293246749803</v>
+        <v>246.285225263599</v>
       </c>
       <c r="Y14" t="n">
-        <v>493.9293246749803</v>
+        <v>246.285225263599</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="C15" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="D15" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="E15" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="F15" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="G15" t="n">
-        <v>35.66705535392282</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="H15" t="n">
-        <v>35.66705535392282</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="I15" t="n">
-        <v>35.66705535392282</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="J15" t="n">
-        <v>35.66705535392282</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="K15" t="n">
-        <v>35.66705535392282</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="L15" t="n">
-        <v>35.66705535392282</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="M15" t="n">
-        <v>35.66705535392282</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="N15" t="n">
-        <v>35.66705535392282</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="O15" t="n">
-        <v>35.66705535392282</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="P15" t="n">
-        <v>35.66705535392282</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.66705535392282</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="R15" t="n">
-        <v>35.66705535392282</v>
+        <v>35.66705535392278</v>
       </c>
       <c r="S15" t="n">
-        <v>35.66705535392282</v>
+        <v>35.66705535392278</v>
       </c>
       <c r="T15" t="n">
-        <v>35.66705535392282</v>
+        <v>35.66705535392278</v>
       </c>
       <c r="U15" t="n">
-        <v>35.66705535392282</v>
+        <v>35.66705535392278</v>
       </c>
       <c r="V15" t="n">
-        <v>29.55854761315496</v>
+        <v>29.55854761315495</v>
       </c>
       <c r="W15" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="X15" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="C16" t="n">
-        <v>62.15278313901732</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="D16" t="n">
-        <v>129.9906218670689</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="E16" t="n">
-        <v>196.6888934135998</v>
+        <v>79.40936002819311</v>
       </c>
       <c r="F16" t="n">
-        <v>196.6888934135998</v>
+        <v>79.40936002819311</v>
       </c>
       <c r="G16" t="n">
-        <v>196.6888934135998</v>
+        <v>79.40936002819311</v>
       </c>
       <c r="H16" t="n">
-        <v>196.6888934135998</v>
+        <v>79.40936002819311</v>
       </c>
       <c r="I16" t="n">
-        <v>196.6888934135998</v>
+        <v>79.40936002819311</v>
       </c>
       <c r="J16" t="n">
-        <v>196.6888934135998</v>
+        <v>79.40936002819311</v>
       </c>
       <c r="K16" t="n">
-        <v>196.6888934135998</v>
+        <v>79.40936002819311</v>
       </c>
       <c r="L16" t="n">
-        <v>196.6888934135998</v>
+        <v>79.40936002819311</v>
       </c>
       <c r="M16" t="n">
-        <v>196.6888934135998</v>
+        <v>79.40936002819311</v>
       </c>
       <c r="N16" t="n">
-        <v>196.6888934135998</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="O16" t="n">
-        <v>196.6888934135998</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="P16" t="n">
-        <v>196.6888934135998</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="Q16" t="n">
-        <v>196.6888934135998</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="R16" t="n">
-        <v>196.6888934135998</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="S16" t="n">
-        <v>196.6888934135998</v>
+        <v>196.6888934135997</v>
       </c>
       <c r="T16" t="n">
         <v>186.7041638411206</v>
       </c>
       <c r="U16" t="n">
-        <v>121.8126192534712</v>
+        <v>121.8126192534711</v>
       </c>
       <c r="V16" t="n">
-        <v>83.36442962279196</v>
+        <v>83.36442962279192</v>
       </c>
       <c r="W16" t="n">
-        <v>19.49514295108924</v>
+        <v>19.49514295108923</v>
       </c>
       <c r="X16" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>323.6075332018797</v>
+        <v>323.6075332018804</v>
       </c>
       <c r="C17" t="n">
-        <v>274.9232925348603</v>
+        <v>274.9232925348602</v>
       </c>
       <c r="D17" t="n">
         <v>235.348845762257</v>
@@ -5501,64 +5501,64 @@
         <v>173.8126438685371</v>
       </c>
       <c r="F17" t="n">
-        <v>92.91097117888073</v>
+        <v>92.91097117888074</v>
       </c>
       <c r="G17" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="H17" t="n">
-        <v>15.70014978319169</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="I17" t="n">
-        <v>146.0063462930609</v>
+        <v>140.8359901672327</v>
       </c>
       <c r="J17" t="n">
-        <v>146.0063462930609</v>
+        <v>140.8359901672327</v>
       </c>
       <c r="K17" t="n">
-        <v>146.0063462930609</v>
+        <v>140.8359901672327</v>
       </c>
       <c r="L17" t="n">
-        <v>146.0063462930609</v>
+        <v>140.8359901672327</v>
       </c>
       <c r="M17" t="n">
-        <v>146.0063462930609</v>
+        <v>140.8359901672327</v>
       </c>
       <c r="N17" t="n">
-        <v>146.0063462930609</v>
+        <v>140.8359901672327</v>
       </c>
       <c r="O17" t="n">
-        <v>146.0063462930609</v>
+        <v>140.8359901672327</v>
       </c>
       <c r="P17" t="n">
-        <v>146.0063462930609</v>
+        <v>140.8359901672327</v>
       </c>
       <c r="Q17" t="n">
-        <v>210.587390691806</v>
+        <v>271.1421866771022</v>
       </c>
       <c r="R17" t="n">
-        <v>210.587390691806</v>
+        <v>287.4292349924816</v>
       </c>
       <c r="S17" t="n">
-        <v>340.8935872016752</v>
+        <v>417.7354315023512</v>
       </c>
       <c r="T17" t="n">
-        <v>449.6478385674837</v>
+        <v>526.4896828681597</v>
       </c>
       <c r="U17" t="n">
-        <v>526.4896828681584</v>
+        <v>526.4896828681597</v>
       </c>
       <c r="V17" t="n">
-        <v>522.7599267642736</v>
+        <v>522.7599267642743</v>
       </c>
       <c r="W17" t="n">
-        <v>493.4745146220478</v>
+        <v>493.4745146220486</v>
       </c>
       <c r="X17" t="n">
-        <v>444.6938921437144</v>
+        <v>444.6938921437151</v>
       </c>
       <c r="Y17" t="n">
-        <v>384.4015547197256</v>
+        <v>384.4015547197263</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="C18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="D18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="E18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="F18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="G18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="H18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="I18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="J18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="K18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="L18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="M18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="N18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="O18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="P18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="R18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="S18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="T18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="U18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="V18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="W18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="X18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="C19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="D19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="E19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="F19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="G19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="H19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="I19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="J19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="K19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="L19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="M19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="N19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="O19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="P19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="R19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="S19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="T19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="U19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="V19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="W19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="X19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>323.6075332018794</v>
+        <v>323.6075332018804</v>
       </c>
       <c r="C20" t="n">
-        <v>274.92329253486</v>
+        <v>274.9232925348609</v>
       </c>
       <c r="D20" t="n">
-        <v>235.3488457622565</v>
+        <v>235.3488457622577</v>
       </c>
       <c r="E20" t="n">
-        <v>173.8126438685366</v>
+        <v>173.8126438685379</v>
       </c>
       <c r="F20" t="n">
-        <v>92.91097117888071</v>
+        <v>92.91097117888074</v>
       </c>
       <c r="G20" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="H20" t="n">
-        <v>15.70014978319169</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="I20" t="n">
-        <v>146.0063462930609</v>
+        <v>58.7292490378764</v>
       </c>
       <c r="J20" t="n">
-        <v>146.0063462930609</v>
+        <v>189.0354455477459</v>
       </c>
       <c r="K20" t="n">
-        <v>146.0063462930609</v>
+        <v>319.3416420576154</v>
       </c>
       <c r="L20" t="n">
-        <v>146.0063462930609</v>
+        <v>449.647838567485</v>
       </c>
       <c r="M20" t="n">
-        <v>146.0063462930609</v>
+        <v>449.647838567485</v>
       </c>
       <c r="N20" t="n">
-        <v>146.0063462930609</v>
+        <v>449.647838567485</v>
       </c>
       <c r="O20" t="n">
-        <v>146.0063462930609</v>
+        <v>449.647838567485</v>
       </c>
       <c r="P20" t="n">
-        <v>146.0063462930609</v>
+        <v>449.647838567485</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.3125428029301</v>
+        <v>449.647838567485</v>
       </c>
       <c r="R20" t="n">
-        <v>406.6187393127993</v>
+        <v>449.647838567485</v>
       </c>
       <c r="S20" t="n">
-        <v>449.6478385674837</v>
+        <v>449.647838567485</v>
       </c>
       <c r="T20" t="n">
-        <v>449.6478385674837</v>
+        <v>449.647838567485</v>
       </c>
       <c r="U20" t="n">
-        <v>526.4896828681584</v>
+        <v>526.4896828681597</v>
       </c>
       <c r="V20" t="n">
-        <v>522.7599267642732</v>
+        <v>522.7599267642743</v>
       </c>
       <c r="W20" t="n">
-        <v>493.4745146220475</v>
+        <v>493.4745146220484</v>
       </c>
       <c r="X20" t="n">
-        <v>444.693892143714</v>
+        <v>444.6938921437152</v>
       </c>
       <c r="Y20" t="n">
-        <v>384.4015547197253</v>
+        <v>384.4015547197263</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="C21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="D21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="E21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="F21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="G21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="H21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="I21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="J21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="K21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="L21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="M21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="N21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="O21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="P21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="R21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="S21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="T21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="U21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="V21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="W21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="X21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="C22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="D22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="E22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="F22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="G22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="H22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="I22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="J22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="K22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="L22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="M22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="N22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="O22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="P22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="R22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="S22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="T22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="U22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="V22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="W22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="X22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.52979365736317</v>
+        <v>10.52979365736319</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5966,73 @@
         <v>323.6075332018795</v>
       </c>
       <c r="C23" t="n">
-        <v>274.9232925348601</v>
+        <v>274.9232925348599</v>
       </c>
       <c r="D23" t="n">
-        <v>235.3488457622569</v>
+        <v>235.3488457622568</v>
       </c>
       <c r="E23" t="n">
-        <v>173.812643868537</v>
+        <v>173.8126438685367</v>
       </c>
       <c r="F23" t="n">
-        <v>92.91097117888071</v>
+        <v>92.91097117888086</v>
       </c>
       <c r="G23" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="H23" t="n">
-        <v>15.70014978319169</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="I23" t="n">
-        <v>15.70014978319169</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="J23" t="n">
-        <v>15.70014978319169</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="K23" t="n">
-        <v>15.70014978319169</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="L23" t="n">
-        <v>15.70014978319169</v>
+        <v>80.28119418193768</v>
       </c>
       <c r="M23" t="n">
-        <v>15.70014978319169</v>
+        <v>80.28119418193768</v>
       </c>
       <c r="N23" t="n">
-        <v>15.70014978319169</v>
+        <v>80.28119418193768</v>
       </c>
       <c r="O23" t="n">
-        <v>15.70014978319169</v>
+        <v>80.28119418193768</v>
       </c>
       <c r="P23" t="n">
-        <v>15.70014978319169</v>
+        <v>80.28119418193768</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.281194181937</v>
+        <v>210.5873906918072</v>
       </c>
       <c r="R23" t="n">
-        <v>210.5873906918063</v>
+        <v>340.8935872016767</v>
       </c>
       <c r="S23" t="n">
-        <v>340.8935872016756</v>
+        <v>340.8935872016767</v>
       </c>
       <c r="T23" t="n">
-        <v>449.6478385674841</v>
+        <v>449.6478385674851</v>
       </c>
       <c r="U23" t="n">
-        <v>526.4896828681588</v>
+        <v>526.4896828681597</v>
       </c>
       <c r="V23" t="n">
-        <v>522.7599267642734</v>
+        <v>522.759926764274</v>
       </c>
       <c r="W23" t="n">
-        <v>493.4745146220475</v>
+        <v>493.474514622048</v>
       </c>
       <c r="X23" t="n">
-        <v>444.693892143714</v>
+        <v>444.6938921437145</v>
       </c>
       <c r="Y23" t="n">
-        <v>384.4015547197253</v>
+        <v>384.4015547197255</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="C24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="D24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="E24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="F24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="G24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="H24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="I24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="J24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="K24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="L24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="M24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="N24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="O24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="P24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="Q24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="R24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="S24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="T24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="U24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="V24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="W24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="X24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="C25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="D25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="E25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="F25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="G25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="H25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="I25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="J25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="K25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="L25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="M25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="N25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="O25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="P25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="Q25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="R25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="S25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="T25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="U25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="V25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="W25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="X25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.52979365736318</v>
+        <v>10.52979365736319</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1078.782752367161</v>
+        <v>1078.782752367163</v>
       </c>
       <c r="C26" t="n">
-        <v>908.0896616929842</v>
+        <v>908.0896616929857</v>
       </c>
       <c r="D26" t="n">
-        <v>746.5063649132234</v>
+        <v>746.5063649132247</v>
       </c>
       <c r="E26" t="n">
-        <v>562.9613130123457</v>
+        <v>562.9613130123471</v>
       </c>
       <c r="F26" t="n">
-        <v>360.0507903155316</v>
+        <v>360.0507903155328</v>
       </c>
       <c r="G26" t="n">
-        <v>155.6607627868572</v>
+        <v>155.6607627868573</v>
       </c>
       <c r="H26" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="I26" t="n">
-        <v>94.46953606116446</v>
+        <v>94.46953606116442</v>
       </c>
       <c r="J26" t="n">
-        <v>195.2483166832099</v>
+        <v>412.8756604096687</v>
       </c>
       <c r="K26" t="n">
-        <v>494.3950144146722</v>
+        <v>719.9856572228903</v>
       </c>
       <c r="L26" t="n">
-        <v>974.6062269025351</v>
+        <v>1201.710352187688</v>
       </c>
       <c r="M26" t="n">
-        <v>1077.810412114997</v>
+        <v>1304.91453740015</v>
       </c>
       <c r="N26" t="n">
-        <v>1183.08319348279</v>
+        <v>1410.187318767943</v>
       </c>
       <c r="O26" t="n">
-        <v>1283.192226571325</v>
+        <v>1410.187318767943</v>
       </c>
       <c r="P26" t="n">
-        <v>1764.916921536123</v>
+        <v>1497.931706556104</v>
       </c>
       <c r="Q26" t="n">
-        <v>1764.916921536123</v>
+        <v>1849.493953912653</v>
       </c>
       <c r="R26" t="n">
-        <v>1912.258048618168</v>
+        <v>1912.25804861817</v>
       </c>
       <c r="S26" t="n">
-        <v>1946.362403898173</v>
+        <v>1946.362403898175</v>
       </c>
       <c r="T26" t="n">
-        <v>1935.31595708029</v>
+        <v>1935.315957080292</v>
       </c>
       <c r="U26" t="n">
-        <v>1891.709152069229</v>
+        <v>1891.709152069231</v>
       </c>
       <c r="V26" t="n">
-        <v>1765.970545958186</v>
+        <v>1765.970545958188</v>
       </c>
       <c r="W26" t="n">
-        <v>1614.676283808803</v>
+        <v>1614.676283808804</v>
       </c>
       <c r="X26" t="n">
-        <v>1443.886811323311</v>
+        <v>1443.886811323313</v>
       </c>
       <c r="Y26" t="n">
-        <v>1261.585623892165</v>
+        <v>1261.585623892166</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="C27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="D27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="E27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="F27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="G27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="H27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="I27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="J27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="K27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="L27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="M27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="N27" t="n">
-        <v>38.92724807796346</v>
+        <v>93.39486775166324</v>
       </c>
       <c r="O27" t="n">
-        <v>38.92724807796346</v>
+        <v>93.39486775166324</v>
       </c>
       <c r="P27" t="n">
-        <v>38.92724807796346</v>
+        <v>93.39486775166324</v>
       </c>
       <c r="Q27" t="n">
-        <v>38.92724807796346</v>
+        <v>93.39486775166324</v>
       </c>
       <c r="R27" t="n">
-        <v>38.92724807796346</v>
+        <v>93.39486775166324</v>
       </c>
       <c r="S27" t="n">
-        <v>70.28776459465935</v>
+        <v>93.39486775166324</v>
       </c>
       <c r="T27" t="n">
-        <v>93.39486775166304</v>
+        <v>93.39486775166324</v>
       </c>
       <c r="U27" t="n">
-        <v>86.15740341028832</v>
+        <v>86.15740341028847</v>
       </c>
       <c r="V27" t="n">
-        <v>69.00244885163787</v>
+        <v>69.00244885163795</v>
       </c>
       <c r="W27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="X27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="Y27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="C28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="D28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="E28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="F28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="G28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="H28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="I28" t="n">
-        <v>38.92724807796346</v>
+        <v>89.72399076001219</v>
       </c>
       <c r="J28" t="n">
-        <v>38.92724807796346</v>
+        <v>89.72399076001219</v>
       </c>
       <c r="K28" t="n">
-        <v>38.92724807796346</v>
+        <v>89.72399076001219</v>
       </c>
       <c r="L28" t="n">
-        <v>38.92724807796346</v>
+        <v>221.266482223581</v>
       </c>
       <c r="M28" t="n">
-        <v>38.92724807796346</v>
+        <v>221.266482223581</v>
       </c>
       <c r="N28" t="n">
-        <v>38.92724807796346</v>
+        <v>221.266482223581</v>
       </c>
       <c r="O28" t="n">
-        <v>38.92724807796346</v>
+        <v>221.266482223581</v>
       </c>
       <c r="P28" t="n">
-        <v>291.1130727383205</v>
+        <v>221.266482223581</v>
       </c>
       <c r="Q28" t="n">
-        <v>291.1130727383205</v>
+        <v>221.266482223581</v>
       </c>
       <c r="R28" t="n">
-        <v>291.1130727383205</v>
+        <v>291.1130727383209</v>
       </c>
       <c r="S28" t="n">
-        <v>291.1130727383205</v>
+        <v>291.1130727383209</v>
       </c>
       <c r="T28" t="n">
-        <v>270.0818963479587</v>
+        <v>270.0818963479591</v>
       </c>
       <c r="U28" t="n">
-        <v>194.1439049424266</v>
+        <v>194.1439049424269</v>
       </c>
       <c r="V28" t="n">
-        <v>144.6492684938648</v>
+        <v>144.649268493865</v>
       </c>
       <c r="W28" t="n">
-        <v>69.73353500427947</v>
+        <v>69.73353500427962</v>
       </c>
       <c r="X28" t="n">
-        <v>49.72173889267081</v>
+        <v>49.72173889267089</v>
       </c>
       <c r="Y28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1078.782752367161</v>
+        <v>1078.782752367163</v>
       </c>
       <c r="C29" t="n">
-        <v>908.0896616929845</v>
+        <v>908.0896616929854</v>
       </c>
       <c r="D29" t="n">
-        <v>746.5063649132236</v>
+        <v>746.5063649132244</v>
       </c>
       <c r="E29" t="n">
-        <v>562.961313012346</v>
+        <v>562.9613130123466</v>
       </c>
       <c r="F29" t="n">
-        <v>360.0507903155319</v>
+        <v>360.0507903155324</v>
       </c>
       <c r="G29" t="n">
-        <v>155.6607627868572</v>
+        <v>155.6607627868574</v>
       </c>
       <c r="H29" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="I29" t="n">
-        <v>94.46953606116446</v>
+        <v>94.46953606116431</v>
       </c>
       <c r="J29" t="n">
-        <v>195.2483166832099</v>
+        <v>412.8756604096685</v>
       </c>
       <c r="K29" t="n">
-        <v>676.9730116480077</v>
+        <v>412.8756604096685</v>
       </c>
       <c r="L29" t="n">
-        <v>767.5679450170371</v>
+        <v>503.4705937786978</v>
       </c>
       <c r="M29" t="n">
-        <v>984.5167444319311</v>
+        <v>606.6747789911594</v>
       </c>
       <c r="N29" t="n">
-        <v>1089.789525799724</v>
+        <v>711.9475603589517</v>
       </c>
       <c r="O29" t="n">
-        <v>1472.951413473458</v>
+        <v>1078.971106296823</v>
       </c>
       <c r="P29" t="n">
-        <v>1560.695801261619</v>
+        <v>1560.695801261621</v>
       </c>
       <c r="Q29" t="n">
-        <v>1912.258048618168</v>
+        <v>1912.25804861817</v>
       </c>
       <c r="R29" t="n">
-        <v>1912.258048618168</v>
+        <v>1912.25804861817</v>
       </c>
       <c r="S29" t="n">
-        <v>1946.362403898173</v>
+        <v>1946.362403898175</v>
       </c>
       <c r="T29" t="n">
-        <v>1935.31595708029</v>
+        <v>1935.315957080292</v>
       </c>
       <c r="U29" t="n">
-        <v>1891.709152069229</v>
+        <v>1891.709152069231</v>
       </c>
       <c r="V29" t="n">
-        <v>1765.970545958186</v>
+        <v>1765.970545958188</v>
       </c>
       <c r="W29" t="n">
-        <v>1614.676283808803</v>
+        <v>1614.676283808804</v>
       </c>
       <c r="X29" t="n">
-        <v>1443.886811323312</v>
+        <v>1443.886811323313</v>
       </c>
       <c r="Y29" t="n">
-        <v>1261.585623892165</v>
+        <v>1261.585623892166</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="C30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="D30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="E30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="F30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="G30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="H30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="I30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="J30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="K30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="L30" t="n">
-        <v>38.92724807796346</v>
+        <v>70.28776459466008</v>
       </c>
       <c r="M30" t="n">
-        <v>38.92724807796346</v>
+        <v>70.28776459466008</v>
       </c>
       <c r="N30" t="n">
-        <v>38.92724807796346</v>
+        <v>70.28776459466008</v>
       </c>
       <c r="O30" t="n">
-        <v>38.92724807796346</v>
+        <v>70.28776459466008</v>
       </c>
       <c r="P30" t="n">
-        <v>38.92724807796346</v>
+        <v>70.28776459466008</v>
       </c>
       <c r="Q30" t="n">
-        <v>38.92724807796346</v>
+        <v>70.28776459466008</v>
       </c>
       <c r="R30" t="n">
-        <v>93.39486775166304</v>
+        <v>70.28776459466008</v>
       </c>
       <c r="S30" t="n">
-        <v>93.39486775166304</v>
+        <v>70.28776459466008</v>
       </c>
       <c r="T30" t="n">
-        <v>93.39486775166304</v>
+        <v>93.3948677516636</v>
       </c>
       <c r="U30" t="n">
-        <v>86.15740341028832</v>
+        <v>86.15740341028871</v>
       </c>
       <c r="V30" t="n">
-        <v>69.00244885163787</v>
+        <v>69.00244885163806</v>
       </c>
       <c r="W30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="X30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="Y30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="C31" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="D31" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="E31" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="F31" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="G31" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="H31" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="I31" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="J31" t="n">
-        <v>163.2386529296594</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="K31" t="n">
-        <v>163.2386529296594</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="L31" t="n">
-        <v>163.2386529296594</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="M31" t="n">
-        <v>163.2386529296594</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="N31" t="n">
-        <v>163.2386529296594</v>
+        <v>291.1130727383216</v>
       </c>
       <c r="O31" t="n">
-        <v>291.1130727383205</v>
+        <v>291.1130727383216</v>
       </c>
       <c r="P31" t="n">
-        <v>291.1130727383205</v>
+        <v>291.1130727383216</v>
       </c>
       <c r="Q31" t="n">
-        <v>291.1130727383205</v>
+        <v>291.1130727383216</v>
       </c>
       <c r="R31" t="n">
-        <v>291.1130727383205</v>
+        <v>291.1130727383216</v>
       </c>
       <c r="S31" t="n">
-        <v>291.1130727383205</v>
+        <v>291.1130727383216</v>
       </c>
       <c r="T31" t="n">
-        <v>270.0818963479587</v>
+        <v>270.0818963479596</v>
       </c>
       <c r="U31" t="n">
-        <v>194.1439049424266</v>
+        <v>194.1439049424274</v>
       </c>
       <c r="V31" t="n">
-        <v>144.6492684938648</v>
+        <v>144.6492684938653</v>
       </c>
       <c r="W31" t="n">
-        <v>69.73353500427947</v>
+        <v>69.73353500427984</v>
       </c>
       <c r="X31" t="n">
-        <v>49.72173889267081</v>
+        <v>49.72173889267101</v>
       </c>
       <c r="Y31" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1078.782752367162</v>
+        <v>1078.782752367163</v>
       </c>
       <c r="C32" t="n">
-        <v>908.0896616929847</v>
+        <v>908.0896616929854</v>
       </c>
       <c r="D32" t="n">
-        <v>746.5063649132239</v>
+        <v>746.5063649132244</v>
       </c>
       <c r="E32" t="n">
-        <v>562.9613130123462</v>
+        <v>562.9613130123466</v>
       </c>
       <c r="F32" t="n">
         <v>360.0507903155324</v>
       </c>
       <c r="G32" t="n">
-        <v>155.6607627868572</v>
+        <v>155.6607627868574</v>
       </c>
       <c r="H32" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="I32" t="n">
-        <v>94.46953606116446</v>
+        <v>94.46953606116431</v>
       </c>
       <c r="J32" t="n">
-        <v>412.8756604096689</v>
+        <v>412.8756604096685</v>
       </c>
       <c r="K32" t="n">
-        <v>894.6003553744666</v>
+        <v>635.4102894411158</v>
       </c>
       <c r="L32" t="n">
-        <v>985.1952887434961</v>
+        <v>1117.134984405914</v>
       </c>
       <c r="M32" t="n">
-        <v>1088.399473955958</v>
+        <v>1598.859679370712</v>
       </c>
       <c r="N32" t="n">
-        <v>1193.672255323751</v>
+        <v>1598.859679370712</v>
       </c>
       <c r="O32" t="n">
-        <v>1430.53335365337</v>
+        <v>1598.859679370712</v>
       </c>
       <c r="P32" t="n">
-        <v>1912.258048618168</v>
+        <v>1686.604067158873</v>
       </c>
       <c r="Q32" t="n">
-        <v>1912.258048618168</v>
+        <v>1764.916921536125</v>
       </c>
       <c r="R32" t="n">
-        <v>1912.258048618168</v>
+        <v>1912.25804861817</v>
       </c>
       <c r="S32" t="n">
-        <v>1946.362403898173</v>
+        <v>1946.362403898175</v>
       </c>
       <c r="T32" t="n">
-        <v>1935.31595708029</v>
+        <v>1935.315957080292</v>
       </c>
       <c r="U32" t="n">
-        <v>1891.70915206923</v>
+        <v>1891.709152069231</v>
       </c>
       <c r="V32" t="n">
-        <v>1765.970545958186</v>
+        <v>1765.970545958188</v>
       </c>
       <c r="W32" t="n">
-        <v>1614.676283808803</v>
+        <v>1614.676283808804</v>
       </c>
       <c r="X32" t="n">
-        <v>1443.886811323312</v>
+        <v>1443.886811323313</v>
       </c>
       <c r="Y32" t="n">
-        <v>1261.585623892165</v>
+        <v>1261.585623892166</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="C33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="D33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="E33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="F33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="G33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="H33" t="n">
-        <v>38.92724807796346</v>
+        <v>93.3948677516636</v>
       </c>
       <c r="I33" t="n">
-        <v>93.39486775166304</v>
+        <v>93.3948677516636</v>
       </c>
       <c r="J33" t="n">
-        <v>93.39486775166304</v>
+        <v>93.3948677516636</v>
       </c>
       <c r="K33" t="n">
-        <v>93.39486775166304</v>
+        <v>93.3948677516636</v>
       </c>
       <c r="L33" t="n">
-        <v>93.39486775166304</v>
+        <v>93.3948677516636</v>
       </c>
       <c r="M33" t="n">
-        <v>93.39486775166304</v>
+        <v>93.3948677516636</v>
       </c>
       <c r="N33" t="n">
-        <v>93.39486775166304</v>
+        <v>93.3948677516636</v>
       </c>
       <c r="O33" t="n">
-        <v>93.39486775166304</v>
+        <v>93.3948677516636</v>
       </c>
       <c r="P33" t="n">
-        <v>93.39486775166304</v>
+        <v>93.3948677516636</v>
       </c>
       <c r="Q33" t="n">
-        <v>93.39486775166304</v>
+        <v>93.3948677516636</v>
       </c>
       <c r="R33" t="n">
-        <v>93.39486775166304</v>
+        <v>93.3948677516636</v>
       </c>
       <c r="S33" t="n">
-        <v>93.39486775166304</v>
+        <v>93.3948677516636</v>
       </c>
       <c r="T33" t="n">
-        <v>93.39486775166304</v>
+        <v>93.3948677516636</v>
       </c>
       <c r="U33" t="n">
-        <v>86.15740341028832</v>
+        <v>86.15740341028871</v>
       </c>
       <c r="V33" t="n">
-        <v>69.00244885163787</v>
+        <v>69.00244885163806</v>
       </c>
       <c r="W33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="X33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="Y33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="C34" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="D34" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="E34" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
       <c r="F34" t="n">
-        <v>38.92724807796346</v>
+        <v>91.79195294403914</v>
       </c>
       <c r="G34" t="n">
-        <v>80.61405839235324</v>
+        <v>91.79195294403914</v>
       </c>
       <c r="H34" t="n">
-        <v>80.61405839235324</v>
+        <v>91.79195294403914</v>
       </c>
       <c r="I34" t="n">
-        <v>80.61405839235324</v>
+        <v>91.79195294403914</v>
       </c>
       <c r="J34" t="n">
-        <v>80.61405839235324</v>
+        <v>91.79195294403914</v>
       </c>
       <c r="K34" t="n">
-        <v>80.61405839235324</v>
+        <v>91.79195294403914</v>
       </c>
       <c r="L34" t="n">
-        <v>80.61405839235324</v>
+        <v>221.2664822235818</v>
       </c>
       <c r="M34" t="n">
-        <v>80.61405839235324</v>
+        <v>221.2664822235818</v>
       </c>
       <c r="N34" t="n">
-        <v>291.1130727383205</v>
+        <v>221.2664822235818</v>
       </c>
       <c r="O34" t="n">
-        <v>291.1130727383205</v>
+        <v>221.2664822235818</v>
       </c>
       <c r="P34" t="n">
-        <v>291.1130727383205</v>
+        <v>221.2664822235818</v>
       </c>
       <c r="Q34" t="n">
-        <v>291.1130727383205</v>
+        <v>221.2664822235818</v>
       </c>
       <c r="R34" t="n">
-        <v>291.1130727383205</v>
+        <v>291.1130727383216</v>
       </c>
       <c r="S34" t="n">
-        <v>291.1130727383205</v>
+        <v>291.1130727383216</v>
       </c>
       <c r="T34" t="n">
-        <v>270.0818963479587</v>
+        <v>270.0818963479596</v>
       </c>
       <c r="U34" t="n">
-        <v>194.1439049424266</v>
+        <v>194.1439049424274</v>
       </c>
       <c r="V34" t="n">
-        <v>144.6492684938648</v>
+        <v>144.6492684938653</v>
       </c>
       <c r="W34" t="n">
-        <v>69.73353500427947</v>
+        <v>69.73353500427984</v>
       </c>
       <c r="X34" t="n">
-        <v>49.72173889267081</v>
+        <v>49.72173889267101</v>
       </c>
       <c r="Y34" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796349</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>815.7962375133425</v>
+        <v>815.7962375133426</v>
       </c>
       <c r="C35" t="n">
-        <v>687.1792670385747</v>
+        <v>687.1792670385748</v>
       </c>
       <c r="D35" t="n">
-        <v>567.6720904582231</v>
+        <v>567.6720904582232</v>
       </c>
       <c r="E35" t="n">
-        <v>426.2031587567548</v>
+        <v>426.203158756755</v>
       </c>
       <c r="F35" t="n">
-        <v>265.36875625935</v>
+        <v>265.3687562593502</v>
       </c>
       <c r="G35" t="n">
-        <v>103.0548489300848</v>
+        <v>103.0548489300843</v>
       </c>
       <c r="H35" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I35" t="n">
         <v>125.1785478112423</v>
       </c>
       <c r="J35" t="n">
-        <v>267.1961338407287</v>
+        <v>267.1961338407288</v>
       </c>
       <c r="K35" t="n">
-        <v>397.4434697004976</v>
+        <v>397.4434697004978</v>
       </c>
       <c r="L35" t="n">
-        <v>529.2772084769681</v>
+        <v>529.2772084769679</v>
       </c>
       <c r="M35" t="n">
-        <v>673.7201990968709</v>
+        <v>673.7201990968708</v>
       </c>
       <c r="N35" t="n">
-        <v>820.2317858721044</v>
+        <v>820.2317858721046</v>
       </c>
       <c r="O35" t="n">
-        <v>961.5796243680811</v>
+        <v>961.5796243680817</v>
       </c>
       <c r="P35" t="n">
         <v>1090.562817563684</v>
@@ -6962,7 +6962,7 @@
         <v>1314.117377461335</v>
       </c>
       <c r="S35" t="n">
-        <v>1389.46053814878</v>
+        <v>1389.460538148781</v>
       </c>
       <c r="T35" t="n">
         <v>1419.872721030015</v>
@@ -6980,7 +6980,7 @@
         <v>1096.748056070674</v>
       </c>
       <c r="Y35" t="n">
-        <v>956.5229888389367</v>
+        <v>956.5229888389368</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="C36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="D36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="E36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="F36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="G36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="H36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="J36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="K36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="L36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="M36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="N36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="O36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="P36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="R36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="S36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="T36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="U36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="V36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="W36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="X36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Y36" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="C37" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="D37" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="E37" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="F37" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="G37" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="H37" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I37" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="J37" t="n">
-        <v>102.5174551660518</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="K37" t="n">
-        <v>102.5174551660518</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="L37" t="n">
-        <v>102.5174551660518</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="M37" t="n">
-        <v>102.5174551660518</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="N37" t="n">
-        <v>102.5174551660518</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="O37" t="n">
-        <v>102.5174551660518</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="P37" t="n">
-        <v>102.5174551660518</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Q37" t="n">
-        <v>102.5174551660518</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="R37" t="n">
-        <v>102.5174551660518</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="S37" t="n">
-        <v>102.5174551660518</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="T37" t="n">
-        <v>102.5174551660518</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="U37" t="n">
-        <v>68.65558395992893</v>
+        <v>68.65558395992882</v>
       </c>
       <c r="V37" t="n">
-        <v>61.23706771077636</v>
+        <v>61.2370677107763</v>
       </c>
       <c r="W37" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="X37" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>815.7962375133425</v>
+        <v>815.7962375133422</v>
       </c>
       <c r="C38" t="n">
-        <v>687.1792670385747</v>
+        <v>687.1792670385746</v>
       </c>
       <c r="D38" t="n">
         <v>567.6720904582231</v>
       </c>
       <c r="E38" t="n">
-        <v>426.2031587567548</v>
+        <v>426.203158756755</v>
       </c>
       <c r="F38" t="n">
-        <v>265.36875625935</v>
+        <v>265.3687562593503</v>
       </c>
       <c r="G38" t="n">
-        <v>103.0548489300848</v>
+        <v>103.0548489300846</v>
       </c>
       <c r="H38" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I38" t="n">
-        <v>125.1785478112423</v>
+        <v>125.1785478112425</v>
       </c>
       <c r="J38" t="n">
-        <v>267.1961338407287</v>
+        <v>267.1961338407291</v>
       </c>
       <c r="K38" t="n">
-        <v>397.4434697004976</v>
+        <v>397.4434697004981</v>
       </c>
       <c r="L38" t="n">
-        <v>529.2772084769681</v>
+        <v>529.2772084769687</v>
       </c>
       <c r="M38" t="n">
-        <v>673.7201990968709</v>
+        <v>673.7201990968695</v>
       </c>
       <c r="N38" t="n">
-        <v>820.2317858721044</v>
+        <v>820.2317858721032</v>
       </c>
       <c r="O38" t="n">
-        <v>961.5796243680811</v>
+        <v>961.57962436808</v>
       </c>
       <c r="P38" t="n">
         <v>1090.562817563683</v>
       </c>
       <c r="Q38" t="n">
-        <v>1210.114477348377</v>
+        <v>1210.114477348375</v>
       </c>
       <c r="R38" t="n">
-        <v>1314.117377461335</v>
+        <v>1314.117377461333</v>
       </c>
       <c r="S38" t="n">
-        <v>1389.46053814878</v>
+        <v>1389.460538148779</v>
       </c>
       <c r="T38" t="n">
-        <v>1419.872721030015</v>
+        <v>1419.872721030014</v>
       </c>
       <c r="U38" t="n">
-        <v>1418.342036218364</v>
+        <v>1418.342036218362</v>
       </c>
       <c r="V38" t="n">
-        <v>1334.67955030673</v>
+        <v>1334.679550306729</v>
       </c>
       <c r="W38" t="n">
-        <v>1225.461408356756</v>
+        <v>1225.461408356755</v>
       </c>
       <c r="X38" t="n">
-        <v>1096.748056070674</v>
+        <v>1096.748056070673</v>
       </c>
       <c r="Y38" t="n">
-        <v>956.5229888389367</v>
+        <v>956.5229888389364</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="C39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="D39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="E39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="F39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="G39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="H39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="J39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="K39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="L39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="M39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="N39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="O39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="P39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="R39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="S39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="T39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="U39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="V39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="W39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="X39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Y39" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>39.44624098878175</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="C40" t="n">
-        <v>39.44624098878175</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="D40" t="n">
-        <v>39.44624098878175</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="E40" t="n">
-        <v>39.44624098878175</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="F40" t="n">
-        <v>39.44624098878175</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="G40" t="n">
-        <v>39.44624098878175</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="H40" t="n">
-        <v>39.44624098878175</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I40" t="n">
-        <v>39.44624098878175</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="J40" t="n">
-        <v>39.44624098878175</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="K40" t="n">
-        <v>39.44624098878175</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="L40" t="n">
-        <v>39.44624098878175</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="M40" t="n">
-        <v>39.44624098878175</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="N40" t="n">
-        <v>39.44624098878175</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="O40" t="n">
-        <v>39.44624098878175</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="P40" t="n">
-        <v>39.44624098878175</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.44624098878175</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="R40" t="n">
-        <v>39.44624098878175</v>
+        <v>102.5174551660512</v>
       </c>
       <c r="S40" t="n">
-        <v>81.89130573880433</v>
+        <v>102.5174551660512</v>
       </c>
       <c r="T40" t="n">
-        <v>102.5174551660518</v>
+        <v>102.5174551660512</v>
       </c>
       <c r="U40" t="n">
-        <v>68.65558395992893</v>
+        <v>68.65558395992858</v>
       </c>
       <c r="V40" t="n">
-        <v>61.23706771077636</v>
+        <v>61.23706771077619</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="X40" t="n">
-        <v>39.44624098878175</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.44624098878175</v>
+        <v>28.3974544206003</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>815.7962375133428</v>
+        <v>815.7962375133429</v>
       </c>
       <c r="C41" t="n">
-        <v>687.1792670385751</v>
+        <v>687.1792670385752</v>
       </c>
       <c r="D41" t="n">
-        <v>567.6720904582235</v>
+        <v>567.6720904582237</v>
       </c>
       <c r="E41" t="n">
-        <v>426.2031587567552</v>
+        <v>426.2031587567556</v>
       </c>
       <c r="F41" t="n">
-        <v>265.3687562593504</v>
+        <v>265.3687562593508</v>
       </c>
       <c r="G41" t="n">
-        <v>103.0548489300847</v>
+        <v>103.0548489300846</v>
       </c>
       <c r="H41" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I41" t="n">
         <v>125.1785478112424</v>
       </c>
       <c r="J41" t="n">
-        <v>267.1961338407289</v>
+        <v>267.1961338407281</v>
       </c>
       <c r="K41" t="n">
-        <v>397.4434697004978</v>
+        <v>397.4434697004971</v>
       </c>
       <c r="L41" t="n">
-        <v>529.2772084769683</v>
+        <v>529.2772084769676</v>
       </c>
       <c r="M41" t="n">
-        <v>673.7201990968712</v>
+        <v>673.7201990968706</v>
       </c>
       <c r="N41" t="n">
-        <v>820.2317858721046</v>
+        <v>820.2317858721043</v>
       </c>
       <c r="O41" t="n">
-        <v>961.5796243680815</v>
+        <v>961.5796243680811</v>
       </c>
       <c r="P41" t="n">
         <v>1090.562817563684</v>
@@ -7442,7 +7442,7 @@
         <v>1419.872721030015</v>
       </c>
       <c r="U41" t="n">
-        <v>1418.342036218363</v>
+        <v>1418.342036218364</v>
       </c>
       <c r="V41" t="n">
         <v>1334.67955030673</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="C42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="D42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="E42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="F42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="G42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="H42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="J42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="K42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="L42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="M42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="N42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="O42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="P42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="R42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="S42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="T42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="U42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="V42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="W42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="X42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.0226984590537</v>
+        <v>39.44624098878104</v>
       </c>
       <c r="C43" t="n">
-        <v>50.0226984590537</v>
+        <v>39.44624098878104</v>
       </c>
       <c r="D43" t="n">
-        <v>50.0226984590537</v>
+        <v>39.44624098878104</v>
       </c>
       <c r="E43" t="n">
-        <v>50.0226984590537</v>
+        <v>39.44624098878104</v>
       </c>
       <c r="F43" t="n">
-        <v>50.0226984590537</v>
+        <v>39.44624098878104</v>
       </c>
       <c r="G43" t="n">
-        <v>50.0226984590537</v>
+        <v>39.44624098878104</v>
       </c>
       <c r="H43" t="n">
-        <v>50.0226984590537</v>
+        <v>39.44624098878104</v>
       </c>
       <c r="I43" t="n">
-        <v>50.0226984590537</v>
+        <v>39.44624098878104</v>
       </c>
       <c r="J43" t="n">
-        <v>50.0226984590537</v>
+        <v>39.44624098878104</v>
       </c>
       <c r="K43" t="n">
-        <v>50.0226984590537</v>
+        <v>39.44624098878104</v>
       </c>
       <c r="L43" t="n">
-        <v>50.0226984590537</v>
+        <v>39.44624098878104</v>
       </c>
       <c r="M43" t="n">
-        <v>102.5174551660516</v>
+        <v>39.44624098878104</v>
       </c>
       <c r="N43" t="n">
-        <v>102.5174551660516</v>
+        <v>39.44624098878104</v>
       </c>
       <c r="O43" t="n">
-        <v>102.5174551660516</v>
+        <v>39.44624098878104</v>
       </c>
       <c r="P43" t="n">
-        <v>102.5174551660516</v>
+        <v>39.44624098878104</v>
       </c>
       <c r="Q43" t="n">
-        <v>102.5174551660516</v>
+        <v>39.44624098878104</v>
       </c>
       <c r="R43" t="n">
-        <v>102.5174551660516</v>
+        <v>39.44624098878104</v>
       </c>
       <c r="S43" t="n">
-        <v>102.5174551660516</v>
+        <v>81.89130573880377</v>
       </c>
       <c r="T43" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660513</v>
       </c>
       <c r="U43" t="n">
-        <v>68.65558395992882</v>
+        <v>68.65558395992865</v>
       </c>
       <c r="V43" t="n">
-        <v>61.2370677107763</v>
+        <v>61.23706771077622</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="X43" t="n">
-        <v>50.0226984590537</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.0226984590537</v>
+        <v>28.3974544206003</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>815.7962375133421</v>
+        <v>815.7962375133426</v>
       </c>
       <c r="C44" t="n">
-        <v>687.1792670385744</v>
+        <v>687.1792670385748</v>
       </c>
       <c r="D44" t="n">
-        <v>567.6720904582232</v>
+        <v>567.6720904582237</v>
       </c>
       <c r="E44" t="n">
-        <v>426.2031587567548</v>
+        <v>426.2031587567552</v>
       </c>
       <c r="F44" t="n">
-        <v>265.36875625935</v>
+        <v>265.3687562593504</v>
       </c>
       <c r="G44" t="n">
         <v>103.0548489300847</v>
       </c>
       <c r="H44" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I44" t="n">
-        <v>125.1785478112423</v>
+        <v>125.1785478112424</v>
       </c>
       <c r="J44" t="n">
         <v>267.1961338407289</v>
       </c>
       <c r="K44" t="n">
-        <v>397.4434697004978</v>
+        <v>397.4434697004982</v>
       </c>
       <c r="L44" t="n">
-        <v>529.2772084769683</v>
+        <v>529.2772084769687</v>
       </c>
       <c r="M44" t="n">
-        <v>673.7201990968713</v>
+        <v>673.7201990968716</v>
       </c>
       <c r="N44" t="n">
-        <v>820.2317858721049</v>
+        <v>820.2317858721052</v>
       </c>
       <c r="O44" t="n">
-        <v>961.5796243680813</v>
+        <v>961.5796243680819</v>
       </c>
       <c r="P44" t="n">
         <v>1090.562817563684</v>
       </c>
       <c r="Q44" t="n">
-        <v>1210.114477348376</v>
+        <v>1210.114477348377</v>
       </c>
       <c r="R44" t="n">
-        <v>1314.117377461334</v>
+        <v>1314.117377461335</v>
       </c>
       <c r="S44" t="n">
-        <v>1389.46053814878</v>
+        <v>1389.460538148781</v>
       </c>
       <c r="T44" t="n">
-        <v>1419.872721030014</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="U44" t="n">
-        <v>1418.342036218363</v>
+        <v>1418.342036218364</v>
       </c>
       <c r="V44" t="n">
-        <v>1334.679550306729</v>
+        <v>1334.67955030673</v>
       </c>
       <c r="W44" t="n">
-        <v>1225.461408356755</v>
+        <v>1225.461408356756</v>
       </c>
       <c r="X44" t="n">
         <v>1096.748056070674</v>
       </c>
       <c r="Y44" t="n">
-        <v>956.5229888389364</v>
+        <v>956.5229888389368</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="C45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="D45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="E45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="F45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="G45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="H45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="J45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="K45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="L45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="M45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="N45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="O45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="P45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="R45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="S45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="T45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="U45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="V45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="W45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="X45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
     </row>
     <row r="46">
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="G46" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="H46" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="I46" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="J46" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="K46" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="L46" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="M46" t="n">
-        <v>102.5174551660516</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="N46" t="n">
-        <v>102.5174551660516</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="O46" t="n">
-        <v>102.5174551660516</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="P46" t="n">
         <v>102.5174551660516</v>
@@ -7837,19 +7837,19 @@
         <v>102.5174551660516</v>
       </c>
       <c r="U46" t="n">
-        <v>68.6555839599288</v>
+        <v>68.65558395992882</v>
       </c>
       <c r="V46" t="n">
-        <v>61.23706771077629</v>
+        <v>61.2370677107763</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39745442060029</v>
+        <v>28.3974544206003</v>
       </c>
     </row>
   </sheetData>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K26" t="n">
-        <v>421.3890363425141</v>
+        <v>220.3045114756502</v>
       </c>
       <c r="L26" t="n">
-        <v>393.5517970897308</v>
+        <v>461.1694482150332</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>108.0080258701201</v>
       </c>
       <c r="P26" t="n">
-        <v>415.4406442736433</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R26" t="n">
-        <v>85.43134583487716</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,13 +9957,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>58.14149588130886</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>96.52986688537281</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10033,10 +10033,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10045,10 +10045,10 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>82.78808566083804</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>175.5085323082534</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10109,25 +10109,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
-        <v>421.3890363425141</v>
+        <v>119.2206547955825</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>131.0327474154641</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>495.0402356415689</v>
+        <v>269.6106190397333</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>398.2896532078639</v>
       </c>
       <c r="Q29" t="n">
         <v>276.0094878578761</v>
@@ -10197,16 +10197,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72711371954033</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10276,13 +10276,13 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>79.93067970396667</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>117.1862746346831</v>
       </c>
       <c r="O31" t="n">
-        <v>211.9541662756472</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10349,28 +10349,28 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K32" t="n">
-        <v>421.3890363425141</v>
+        <v>134.8748470496157</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>499.3931824748065</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>382.3439492447844</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>102.7921185173354</v>
       </c>
       <c r="O32" t="n">
-        <v>138.1333992334183</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>418.3383206229274</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>130.0243680027304</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>26.44923853401492</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10507,16 +10507,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>80.40428934589777</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>78.34590850546634</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>75.07838542822756</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-12</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.26340388691679</v>
+        <v>158.7360295045825</v>
       </c>
       <c r="C11" t="n">
-        <v>158.0501774177315</v>
+        <v>158.0501774177317</v>
       </c>
       <c r="D11" t="n">
-        <v>149.0314814622595</v>
+        <v>149.0314814622596</v>
       </c>
       <c r="E11" t="n">
-        <v>170.773619032165</v>
+        <v>170.7736190321652</v>
       </c>
       <c r="F11" t="n">
-        <v>189.9454351201422</v>
+        <v>189.9454351201423</v>
       </c>
       <c r="G11" t="n">
-        <v>191.4101449036847</v>
+        <v>59.78772418664494</v>
       </c>
       <c r="H11" t="n">
-        <v>104.630197212101</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>32.23475461124648</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>113.5452377002291</v>
       </c>
       <c r="W11" t="n">
-        <v>138.8453371781858</v>
+        <v>7.222916461146042</v>
       </c>
       <c r="X11" t="n">
-        <v>26.5231746938928</v>
+        <v>158.1455954109326</v>
       </c>
       <c r="Y11" t="n">
-        <v>37.91977249009156</v>
+        <v>37.91977249009142</v>
       </c>
     </row>
     <row r="12">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59.34836339878895</v>
+        <v>68.26340388691622</v>
       </c>
       <c r="C14" t="n">
-        <v>26.4277567006919</v>
+        <v>158.0501774177315</v>
       </c>
       <c r="D14" t="n">
-        <v>149.0314814622595</v>
+        <v>17.40906074521953</v>
       </c>
       <c r="E14" t="n">
-        <v>39.15119831512541</v>
+        <v>170.773619032165</v>
       </c>
       <c r="F14" t="n">
         <v>189.9454351201422</v>
@@ -23510,7 +23510,7 @@
         <v>191.4101449036847</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>104.630197212101</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>113.5452377002289</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>138.8453371781858</v>
+        <v>7.222916461145843</v>
       </c>
       <c r="X14" t="n">
         <v>158.1455954109324</v>
       </c>
       <c r="Y14" t="n">
-        <v>169.5421932071312</v>
+        <v>169.5421932071311</v>
       </c>
     </row>
     <row r="15">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>5.506706202140776e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>669286.7981197671</v>
+        <v>669286.798119767</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838500.9473757257</v>
+        <v>838500.947375726</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838500.9473757257</v>
+        <v>838500.9473757261</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>838500.9473757257</v>
+        <v>838500.9473757261</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>767624.0604941816</v>
+        <v>767624.0604941815</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574407.4736304781</v>
+        <v>574407.4736304778</v>
       </c>
       <c r="C2" t="n">
-        <v>574407.473630478</v>
+        <v>574407.4736304783</v>
       </c>
       <c r="D2" t="n">
-        <v>574407.4736304781</v>
+        <v>574407.4736304783</v>
       </c>
       <c r="E2" t="n">
         <v>501965.098589825</v>
       </c>
       <c r="F2" t="n">
-        <v>501965.098589825</v>
+        <v>501965.0985898252</v>
       </c>
       <c r="G2" t="n">
-        <v>575718.0453706365</v>
+        <v>575718.0453706364</v>
       </c>
       <c r="H2" t="n">
-        <v>575718.0453706364</v>
+        <v>575718.0453706363</v>
       </c>
       <c r="I2" t="n">
         <v>575718.0453706364</v>
       </c>
       <c r="J2" t="n">
-        <v>575718.0453706364</v>
+        <v>575718.0453706365</v>
       </c>
       <c r="K2" t="n">
-        <v>575718.0453706367</v>
+        <v>575718.045370636</v>
       </c>
       <c r="L2" t="n">
-        <v>575718.0453706371</v>
+        <v>575718.045370636</v>
       </c>
       <c r="M2" t="n">
-        <v>575718.0453706359</v>
+        <v>575718.045370636</v>
       </c>
       <c r="N2" t="n">
         <v>575718.0453706359</v>
       </c>
       <c r="O2" t="n">
-        <v>575718.0453706359</v>
+        <v>575718.0453706362</v>
       </c>
       <c r="P2" t="n">
         <v>575718.0453706362</v>
@@ -26375,10 +26375,10 @@
         <v>308990.6514115119</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>87882.22332590586</v>
+        <v>87882.22332590583</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>172295.6802798567</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>87882.22332590586</v>
+        <v>87882.22332590583</v>
       </c>
       <c r="M3" t="n">
-        <v>33324.28719793213</v>
+        <v>33324.28719793231</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>79420.38572456251</v>
+        <v>79420.38572456235</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>437137.1652114342</v>
       </c>
       <c r="E4" t="n">
-        <v>341966.2726892944</v>
+        <v>341966.2726892943</v>
       </c>
       <c r="F4" t="n">
-        <v>341966.2726892944</v>
+        <v>341966.2726892945</v>
       </c>
       <c r="G4" t="n">
         <v>398022.0726506228</v>
@@ -26439,7 +26439,7 @@
         <v>398022.0726506228</v>
       </c>
       <c r="J4" t="n">
-        <v>405719.4410900336</v>
+        <v>405719.4410900337</v>
       </c>
       <c r="K4" t="n">
         <v>405719.4410900336</v>
@@ -26454,7 +26454,7 @@
         <v>398950.3342181894</v>
       </c>
       <c r="O4" t="n">
-        <v>398950.3342181894</v>
+        <v>398950.3342181895</v>
       </c>
       <c r="P4" t="n">
         <v>398950.3342181894</v>
@@ -26479,34 +26479,34 @@
         <v>29044.09759212585</v>
       </c>
       <c r="F5" t="n">
-        <v>29044.09759212585</v>
+        <v>29044.09759212588</v>
       </c>
       <c r="G5" t="n">
-        <v>38279.31088310783</v>
+        <v>38279.31088310784</v>
       </c>
       <c r="H5" t="n">
-        <v>38279.31088310783</v>
+        <v>38279.31088310784</v>
       </c>
       <c r="I5" t="n">
         <v>38279.31088310783</v>
       </c>
       <c r="J5" t="n">
-        <v>49706.78585162483</v>
+        <v>49706.78585162484</v>
       </c>
       <c r="K5" t="n">
-        <v>49706.78585162482</v>
+        <v>49706.78585162484</v>
       </c>
       <c r="L5" t="n">
-        <v>49706.78585162482</v>
+        <v>49706.78585162484</v>
       </c>
       <c r="M5" t="n">
         <v>45206.06704758252</v>
       </c>
       <c r="N5" t="n">
-        <v>45206.06704758252</v>
+        <v>45206.06704758253</v>
       </c>
       <c r="O5" t="n">
-        <v>45206.06704758252</v>
+        <v>45206.06704758253</v>
       </c>
       <c r="P5" t="n">
         <v>45206.06704758252</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103642.7084190439</v>
+        <v>103638.3398465764</v>
       </c>
       <c r="C6" t="n">
-        <v>103642.7084190438</v>
+        <v>103638.3398465769</v>
       </c>
       <c r="D6" t="n">
-        <v>103642.7084190439</v>
+        <v>103638.3398465769</v>
       </c>
       <c r="E6" t="n">
-        <v>-178035.9231031072</v>
+        <v>-178281.7662590431</v>
       </c>
       <c r="F6" t="n">
-        <v>130954.7283084047</v>
+        <v>130708.8851524686</v>
       </c>
       <c r="G6" t="n">
-        <v>51534.43851100007</v>
+        <v>51534.43851099988</v>
       </c>
       <c r="H6" t="n">
-        <v>139416.6618369058</v>
+        <v>139416.6618369056</v>
       </c>
       <c r="I6" t="n">
-        <v>139416.6618369058</v>
+        <v>139416.6618369059</v>
       </c>
       <c r="J6" t="n">
-        <v>-52003.86185087878</v>
+        <v>-52003.86185087873</v>
       </c>
       <c r="K6" t="n">
-        <v>120291.8184289783</v>
+        <v>120291.8184289775</v>
       </c>
       <c r="L6" t="n">
-        <v>32409.59510307279</v>
+        <v>32409.59510307173</v>
       </c>
       <c r="M6" t="n">
-        <v>98237.35690693192</v>
+        <v>98237.35690693173</v>
       </c>
       <c r="N6" t="n">
         <v>131561.644104864</v>
       </c>
       <c r="O6" t="n">
-        <v>52141.25838030154</v>
+        <v>52141.25838030182</v>
       </c>
       <c r="P6" t="n">
         <v>131561.6441048642</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
       <c r="F2" t="n">
         <v>220.0642436627892</v>
@@ -26704,25 +26704,25 @@
         <v>329.9170228201715</v>
       </c>
       <c r="I2" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
       <c r="J2" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="K2" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="L2" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="M2" t="n">
         <v>250.7836203105006</v>
       </c>
       <c r="N2" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="O2" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="P2" t="n">
         <v>250.7836203105006</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="F3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="G3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="H3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="I3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="J3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="K3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="L3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="M3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="N3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="O3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="P3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
     </row>
     <row r="4">
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>131.6224207170396</v>
+        <v>131.6224207170399</v>
       </c>
       <c r="F4" t="n">
-        <v>131.6224207170396</v>
+        <v>131.6224207170399</v>
       </c>
       <c r="G4" t="n">
-        <v>131.6224207170396</v>
+        <v>131.6224207170399</v>
       </c>
       <c r="H4" t="n">
-        <v>131.6224207170396</v>
+        <v>131.6224207170399</v>
       </c>
       <c r="I4" t="n">
-        <v>131.6224207170397</v>
+        <v>131.6224207170399</v>
       </c>
       <c r="J4" t="n">
-        <v>486.5906009745433</v>
+        <v>486.5906009745436</v>
       </c>
       <c r="K4" t="n">
-        <v>486.5906009745432</v>
+        <v>486.5906009745436</v>
       </c>
       <c r="L4" t="n">
-        <v>486.5906009745432</v>
+        <v>486.5906009745436</v>
       </c>
       <c r="M4" t="n">
         <v>354.9681802575037</v>
@@ -26829,7 +26829,7 @@
         <v>354.9681802575037</v>
       </c>
       <c r="P4" t="n">
-        <v>354.9681802575036</v>
+        <v>354.9681802575037</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="G2" t="n">
         <v>109.8527791573823</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>99.27548215570309</v>
+        <v>99.27548215570297</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="L2" t="n">
         <v>109.8527791573823</v>
       </c>
       <c r="M2" t="n">
-        <v>41.65535899741516</v>
+        <v>41.65535899741539</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>99.27548215570314</v>
+        <v>99.27548215570295</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>131.6224207170396</v>
+        <v>131.6224207170399</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>354.9681802575036</v>
+        <v>354.9681802575037</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="L2" t="n">
         <v>109.8527791573823</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>99.27548215570309</v>
+        <v>99.27548215570297</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>131.6224207170396</v>
+        <v>131.6224207170399</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
       <c r="C11" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
       <c r="D11" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
       <c r="E11" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
       <c r="F11" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
       <c r="G11" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
       <c r="H11" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
       <c r="I11" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
       <c r="J11" t="n">
-        <v>220.0642436627892</v>
+        <v>107.3315132100092</v>
       </c>
       <c r="K11" t="n">
-        <v>119.2206547955825</v>
+        <v>220.064243662789</v>
       </c>
       <c r="L11" t="n">
-        <v>117.6182276069951</v>
+        <v>220.064243662789</v>
       </c>
       <c r="M11" t="n">
-        <v>104.8816095833259</v>
+        <v>220.064243662789</v>
       </c>
       <c r="N11" t="n">
-        <v>220.0642436627892</v>
+        <v>102.7921185173354</v>
       </c>
       <c r="O11" t="n">
-        <v>122.3767124536985</v>
+        <v>220.064243662789</v>
       </c>
       <c r="P11" t="n">
         <v>120.4975665775688</v>
       </c>
       <c r="Q11" t="n">
-        <v>220.0642436627892</v>
+        <v>130.0243680027304</v>
       </c>
       <c r="R11" t="n">
-        <v>220.0642436627892</v>
+        <v>145.7301858529672</v>
       </c>
       <c r="S11" t="n">
-        <v>220.0642436627892</v>
+        <v>198.2832625193511</v>
       </c>
       <c r="T11" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
       <c r="U11" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
       <c r="V11" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
       <c r="W11" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
       <c r="X11" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
       <c r="Y11" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
     </row>
     <row r="12">
@@ -28172,7 +28172,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>162.8414240705584</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
         <v>145.5577298436975</v>
@@ -28193,25 +28193,25 @@
         <v>79.36985402649256</v>
       </c>
       <c r="K12" t="n">
-        <v>71.51350511400938</v>
+        <v>96.90467854487807</v>
       </c>
       <c r="L12" t="n">
         <v>58.14149588130886</v>
       </c>
       <c r="M12" t="n">
-        <v>51.96206476056941</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N12" t="n">
-        <v>41.51206923517103</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O12" t="n">
-        <v>56.2113763383974</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P12" t="n">
-        <v>60.9813693583478</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q12" t="n">
-        <v>81.73346793160954</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R12" t="n">
         <v>102.7991627330203</v>
@@ -28226,10 +28226,10 @@
         <v>216.2933510110464</v>
       </c>
       <c r="V12" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
       <c r="W12" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -28248,7 +28248,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
-        <v>167.9198098429365</v>
+        <v>220.064243662789</v>
       </c>
       <c r="D13" t="n">
         <v>151.5411742405149</v>
@@ -28269,49 +28269,49 @@
         <v>136.4403570291208</v>
       </c>
       <c r="J13" t="n">
-        <v>88.32412184825274</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K13" t="n">
-        <v>80.40428934589777</v>
+        <v>212.0267100629377</v>
       </c>
       <c r="L13" t="n">
-        <v>78.34590850546634</v>
+        <v>82.61854867184414</v>
       </c>
       <c r="M13" t="n">
-        <v>79.93067970396667</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N13" t="n">
-        <v>71.58137972518439</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O13" t="n">
-        <v>82.78808566083804</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P13" t="n">
-        <v>86.48380385827528</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q13" t="n">
-        <v>220.0642436627892</v>
+        <v>105.4981853689493</v>
       </c>
       <c r="R13" t="n">
-        <v>212.0495860914644</v>
+        <v>138.576149682035</v>
       </c>
       <c r="S13" t="n">
         <v>207.9098175327</v>
       </c>
       <c r="T13" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
       <c r="U13" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
       <c r="V13" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
       <c r="W13" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
       <c r="X13" t="n">
-        <v>220.0642436627892</v>
+        <v>220.064243662789</v>
       </c>
       <c r="Y13" t="n">
         <v>219.8148072196457</v>
@@ -28348,28 +28348,28 @@
         <v>220.0642436627892</v>
       </c>
       <c r="J14" t="n">
-        <v>107.3315132100092</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="K14" t="n">
-        <v>119.2206547955825</v>
+        <v>126.152031019991</v>
       </c>
       <c r="L14" t="n">
         <v>117.6182276069951</v>
       </c>
       <c r="M14" t="n">
-        <v>104.8816095833259</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="N14" t="n">
-        <v>135.5427658212581</v>
+        <v>102.7921185173354</v>
       </c>
       <c r="O14" t="n">
-        <v>220.0642436627892</v>
+        <v>108.0080258701201</v>
       </c>
       <c r="P14" t="n">
         <v>220.0642436627892</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.0642436627892</v>
+        <v>130.0243680027304</v>
       </c>
       <c r="R14" t="n">
         <v>220.0642436627892</v>
@@ -28418,7 +28418,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>152.581687715093</v>
+        <v>127.1905142842246</v>
       </c>
       <c r="H15" t="n">
         <v>96.51723797799072</v>
@@ -28436,22 +28436,22 @@
         <v>58.14149588130886</v>
       </c>
       <c r="M15" t="n">
-        <v>51.96206476056941</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N15" t="n">
-        <v>41.51206923517103</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O15" t="n">
-        <v>56.2113763383974</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P15" t="n">
-        <v>60.9813693583478</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.73346793160954</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R15" t="n">
-        <v>102.7991627330203</v>
+        <v>128.1903361638886</v>
       </c>
       <c r="S15" t="n">
         <v>146.6148367064899</v>
@@ -28485,13 +28485,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C16" t="n">
+        <v>167.9198098429365</v>
+      </c>
+      <c r="D16" t="n">
+        <v>151.5411742405149</v>
+      </c>
+      <c r="E16" t="n">
         <v>220.0642436627892</v>
-      </c>
-      <c r="D16" t="n">
-        <v>220.0642436627892</v>
-      </c>
-      <c r="E16" t="n">
-        <v>217.8609155574367</v>
       </c>
       <c r="F16" t="n">
         <v>150.9558484244806</v>
@@ -28506,7 +28506,7 @@
         <v>136.4403570291208</v>
       </c>
       <c r="J16" t="n">
-        <v>88.32412184825274</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K16" t="n">
         <v>80.40428934589777</v>
@@ -28515,16 +28515,16 @@
         <v>78.34590850546634</v>
       </c>
       <c r="M16" t="n">
-        <v>79.93067970396667</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N16" t="n">
-        <v>71.58137972518439</v>
+        <v>190.0455548619587</v>
       </c>
       <c r="O16" t="n">
-        <v>82.78808566083804</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P16" t="n">
-        <v>86.48380385827528</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q16" t="n">
         <v>105.4981853689493</v>
@@ -28579,10 +28579,10 @@
         <v>329.9170228201715</v>
       </c>
       <c r="H17" t="n">
-        <v>329.9170228201715</v>
+        <v>324.6944408748902</v>
       </c>
       <c r="I17" t="n">
-        <v>284.6473608349725</v>
+        <v>284.6473608349728</v>
       </c>
       <c r="J17" t="n">
         <v>107.3315132100092</v>
@@ -28594,7 +28594,7 @@
         <v>117.6182276069951</v>
       </c>
       <c r="M17" t="n">
-        <v>104.8816095833259</v>
+        <v>104.881609583326</v>
       </c>
       <c r="N17" t="n">
         <v>102.7921185173354</v>
@@ -28606,19 +28606,19 @@
         <v>120.4975665775688</v>
       </c>
       <c r="Q17" t="n">
-        <v>195.2577461832811</v>
+        <v>261.6467887197703</v>
       </c>
       <c r="R17" t="n">
-        <v>145.7301858529672</v>
+        <v>162.1817498078959</v>
       </c>
       <c r="S17" t="n">
-        <v>306.3018383129485</v>
+        <v>306.3018383129488</v>
       </c>
       <c r="T17" t="n">
         <v>329.9170228201715</v>
       </c>
       <c r="U17" t="n">
-        <v>329.9170228201715</v>
+        <v>252.2989982740355</v>
       </c>
       <c r="V17" t="n">
         <v>329.9170228201715</v>
@@ -28673,19 +28673,19 @@
         <v>58.14149588130886</v>
       </c>
       <c r="M18" t="n">
-        <v>51.96206476056941</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N18" t="n">
-        <v>41.51206923517103</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O18" t="n">
-        <v>56.2113763383974</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P18" t="n">
-        <v>60.9813693583478</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q18" t="n">
-        <v>81.73346793160954</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R18" t="n">
         <v>102.7991627330203</v>
@@ -28743,7 +28743,7 @@
         <v>136.4403570291208</v>
       </c>
       <c r="J19" t="n">
-        <v>88.32412184825274</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K19" t="n">
         <v>80.40428934589777</v>
@@ -28752,16 +28752,16 @@
         <v>78.34590850546634</v>
       </c>
       <c r="M19" t="n">
-        <v>79.93067970396667</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N19" t="n">
-        <v>71.58137972518439</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O19" t="n">
-        <v>82.78808566083804</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P19" t="n">
-        <v>86.48380385827528</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q19" t="n">
         <v>105.4981853689493</v>
@@ -28816,22 +28816,22 @@
         <v>329.9170228201715</v>
       </c>
       <c r="H20" t="n">
-        <v>329.9170228201715</v>
+        <v>324.6944408748902</v>
       </c>
       <c r="I20" t="n">
-        <v>284.6473608349725</v>
+        <v>201.7112586841078</v>
       </c>
       <c r="J20" t="n">
-        <v>107.3315132100092</v>
+        <v>238.9539339270491</v>
       </c>
       <c r="K20" t="n">
-        <v>119.2206547955825</v>
+        <v>250.8430755126224</v>
       </c>
       <c r="L20" t="n">
-        <v>117.6182276069951</v>
+        <v>249.240648324035</v>
       </c>
       <c r="M20" t="n">
-        <v>104.8816095833259</v>
+        <v>104.881609583326</v>
       </c>
       <c r="N20" t="n">
         <v>102.7921185173354</v>
@@ -28843,13 +28843,13 @@
         <v>120.4975665775688</v>
       </c>
       <c r="Q20" t="n">
-        <v>261.64678871977</v>
+        <v>130.0243680027304</v>
       </c>
       <c r="R20" t="n">
-        <v>277.3526065700069</v>
+        <v>145.7301858529672</v>
       </c>
       <c r="S20" t="n">
-        <v>218.1431542168022</v>
+        <v>174.6794175959089</v>
       </c>
       <c r="T20" t="n">
         <v>220.0642436627892</v>
@@ -28910,19 +28910,19 @@
         <v>58.14149588130886</v>
       </c>
       <c r="M21" t="n">
-        <v>51.96206476056941</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N21" t="n">
-        <v>41.51206923517103</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O21" t="n">
-        <v>56.2113763383974</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P21" t="n">
-        <v>60.9813693583478</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.73346793160954</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R21" t="n">
         <v>102.7991627330203</v>
@@ -28980,7 +28980,7 @@
         <v>136.4403570291208</v>
       </c>
       <c r="J22" t="n">
-        <v>88.32412184825274</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K22" t="n">
         <v>80.40428934589777</v>
@@ -28989,16 +28989,16 @@
         <v>78.34590850546634</v>
       </c>
       <c r="M22" t="n">
-        <v>79.93067970396667</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N22" t="n">
-        <v>71.58137972518439</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O22" t="n">
-        <v>82.78808566083804</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P22" t="n">
-        <v>86.48380385827528</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q22" t="n">
         <v>105.4981853689493</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
       <c r="C23" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
       <c r="D23" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
       <c r="E23" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
       <c r="F23" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
       <c r="G23" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
       <c r="H23" t="n">
-        <v>329.9170228201715</v>
+        <v>324.6944408748902</v>
       </c>
       <c r="I23" t="n">
         <v>153.0249401179329</v>
@@ -29065,10 +29065,10 @@
         <v>119.2206547955825</v>
       </c>
       <c r="L23" t="n">
-        <v>117.6182276069951</v>
+        <v>188.0741877328279</v>
       </c>
       <c r="M23" t="n">
-        <v>104.8816095833259</v>
+        <v>104.881609583326</v>
       </c>
       <c r="N23" t="n">
         <v>102.7921185173354</v>
@@ -29080,31 +29080,31 @@
         <v>120.4975665775688</v>
       </c>
       <c r="Q23" t="n">
-        <v>195.2577461832812</v>
+        <v>261.6467887197703</v>
       </c>
       <c r="R23" t="n">
-        <v>277.3526065700069</v>
+        <v>277.3526065700072</v>
       </c>
       <c r="S23" t="n">
-        <v>306.3018383129486</v>
+        <v>174.6794175959089</v>
       </c>
       <c r="T23" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
       <c r="U23" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
       <c r="V23" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
       <c r="W23" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
       <c r="X23" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
       <c r="Y23" t="n">
-        <v>329.9170228201715</v>
+        <v>329.9170228201714</v>
       </c>
     </row>
     <row r="24">
@@ -29147,19 +29147,19 @@
         <v>58.14149588130886</v>
       </c>
       <c r="M24" t="n">
-        <v>51.96206476056941</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N24" t="n">
-        <v>41.51206923517103</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O24" t="n">
-        <v>56.2113763383974</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P24" t="n">
-        <v>60.9813693583478</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.73346793160954</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R24" t="n">
         <v>102.7991627330203</v>
@@ -29217,7 +29217,7 @@
         <v>136.4403570291208</v>
       </c>
       <c r="J25" t="n">
-        <v>88.32412184825274</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K25" t="n">
         <v>80.40428934589777</v>
@@ -29226,16 +29226,16 @@
         <v>78.34590850546634</v>
       </c>
       <c r="M25" t="n">
-        <v>79.93067970396667</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N25" t="n">
-        <v>71.58137972518439</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O25" t="n">
-        <v>82.78808566083804</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P25" t="n">
-        <v>86.48380385827528</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q25" t="n">
         <v>105.4981853689493</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="C26" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="D26" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="E26" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="F26" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="G26" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="H26" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="I26" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="J26" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="L26" t="n">
-        <v>209.1282613130854</v>
+        <v>143.0393803665055</v>
       </c>
       <c r="M26" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="N26" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="O26" t="n">
-        <v>209.1282613130854</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>191.6475232784689</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="Q26" t="n">
-        <v>130.0243680027304</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="R26" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="S26" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="T26" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="U26" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="V26" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="W26" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="X26" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="Y26" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
     </row>
     <row r="27">
@@ -29381,40 +29381,40 @@
         <v>71.51350511400938</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M27" t="n">
-        <v>51.96206476056941</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N27" t="n">
-        <v>41.51206923517103</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>56.2113763383974</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P27" t="n">
-        <v>60.9813693583478</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.73346793160954</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R27" t="n">
         <v>102.7991627330203</v>
       </c>
       <c r="S27" t="n">
-        <v>178.2921261172938</v>
+        <v>146.6148367064899</v>
       </c>
       <c r="T27" t="n">
-        <v>209.1282613130854</v>
+        <v>185.7877530736877</v>
       </c>
       <c r="U27" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="V27" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="W27" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="X27" t="n">
         <v>195.9378182409833</v>
@@ -29451,55 +29451,55 @@
         <v>155.9102360382001</v>
       </c>
       <c r="I28" t="n">
-        <v>136.4403570291208</v>
+        <v>187.7501981220993</v>
       </c>
       <c r="J28" t="n">
-        <v>88.32412184825274</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K28" t="n">
-        <v>80.40428934589777</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>78.34590850546634</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>79.93067970396667</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N28" t="n">
-        <v>71.58137972518439</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P28" t="n">
-        <v>165.7084277726047</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q28" t="n">
         <v>105.4981853689493</v>
       </c>
       <c r="R28" t="n">
-        <v>138.576149682035</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="S28" t="n">
         <v>207.9098175327</v>
       </c>
       <c r="T28" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="U28" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="V28" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="W28" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="X28" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130853</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="C29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="D29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="E29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="F29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="G29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="H29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="I29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="J29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="K29" t="n">
-        <v>184.4222194276116</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="M29" t="n">
-        <v>192.9890635970477</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="N29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="P29" t="n">
-        <v>209.1282613130854</v>
+        <v>208.7985143442485</v>
       </c>
       <c r="Q29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="R29" t="n">
         <v>145.7301858529672</v>
       </c>
       <c r="S29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="T29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="U29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="V29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="W29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="X29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="Y29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
     </row>
     <row r="30">
@@ -29618,40 +29618,40 @@
         <v>71.51350511400938</v>
       </c>
       <c r="L30" t="n">
-        <v>58.14149588130886</v>
+        <v>89.81878529211349</v>
       </c>
       <c r="M30" t="n">
-        <v>51.96206476056941</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>41.51206923517103</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>56.2113763383974</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P30" t="n">
-        <v>60.9813693583478</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.73346793160954</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R30" t="n">
-        <v>157.8169603832219</v>
+        <v>102.7991627330203</v>
       </c>
       <c r="S30" t="n">
         <v>146.6148367064899</v>
       </c>
       <c r="T30" t="n">
-        <v>185.7877530736877</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="U30" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="V30" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="W30" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="X30" t="n">
         <v>195.9378182409833</v>
@@ -29691,7 +29691,7 @@
         <v>136.4403570291208</v>
       </c>
       <c r="J31" t="n">
-        <v>170.1640837364861</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K31" t="n">
         <v>80.40428934589777</v>
@@ -29703,13 +29703,13 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>71.58137972518439</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P31" t="n">
-        <v>86.48380385827528</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q31" t="n">
         <v>105.4981853689493</v>
@@ -29721,22 +29721,22 @@
         <v>207.9098175327</v>
       </c>
       <c r="T31" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="U31" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="V31" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="W31" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="X31" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="Y31" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="C32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="D32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="E32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="F32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="G32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="H32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="I32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="J32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="K32" t="n">
-        <v>184.4222194276116</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="L32" t="n">
-        <v>209.1282613130854</v>
+        <v>104.8156461067322</v>
       </c>
       <c r="M32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="N32" t="n">
-        <v>209.1282613130854</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>209.1282613130854</v>
+        <v>108.0080258701201</v>
       </c>
       <c r="P32" t="n">
-        <v>188.7498469291846</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="R32" t="n">
-        <v>119.2809473189523</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="S32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="T32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="U32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="V32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="W32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="X32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="Y32" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
     </row>
     <row r="33">
@@ -29843,10 +29843,10 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H33" t="n">
-        <v>96.51723797799072</v>
+        <v>151.5350356281928</v>
       </c>
       <c r="I33" t="n">
-        <v>127.2481505323047</v>
+        <v>72.23035288210312</v>
       </c>
       <c r="J33" t="n">
         <v>79.36985402649256</v>
@@ -29858,19 +29858,19 @@
         <v>58.14149588130886</v>
       </c>
       <c r="M33" t="n">
-        <v>51.96206476056941</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N33" t="n">
-        <v>41.51206923517103</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O33" t="n">
-        <v>56.2113763383974</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P33" t="n">
-        <v>60.9813693583478</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.73346793160954</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R33" t="n">
         <v>102.7991627330203</v>
@@ -29882,13 +29882,13 @@
         <v>185.7877530736877</v>
       </c>
       <c r="U33" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="V33" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="W33" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="X33" t="n">
         <v>195.9378182409833</v>
@@ -29916,10 +29916,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
-        <v>150.9558484244806</v>
+        <v>204.3545402083955</v>
       </c>
       <c r="G34" t="n">
-        <v>209.1282613130854</v>
+        <v>167.0203721066311</v>
       </c>
       <c r="H34" t="n">
         <v>155.9102360382001</v>
@@ -29928,52 +29928,52 @@
         <v>136.4403570291208</v>
       </c>
       <c r="J34" t="n">
-        <v>88.32412184825274</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="M34" t="n">
-        <v>79.93067970396667</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N34" t="n">
-        <v>209.1282613130854</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O34" t="n">
-        <v>82.78808566083804</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P34" t="n">
-        <v>86.48380385827528</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q34" t="n">
         <v>105.4981853689493</v>
       </c>
       <c r="R34" t="n">
-        <v>138.576149682035</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="S34" t="n">
         <v>207.9098175327</v>
       </c>
       <c r="T34" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="U34" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="V34" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="W34" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="X34" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
       <c r="Y34" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130852</v>
       </c>
     </row>
     <row r="35">
@@ -30095,19 +30095,19 @@
         <v>58.14149588130886</v>
       </c>
       <c r="M36" t="n">
-        <v>51.96206476056941</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N36" t="n">
-        <v>41.51206923517103</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O36" t="n">
-        <v>56.2113763383974</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P36" t="n">
-        <v>60.9813693583478</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q36" t="n">
-        <v>81.73346793160954</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R36" t="n">
         <v>102.7991627330203</v>
@@ -30165,7 +30165,7 @@
         <v>136.4403570291208</v>
       </c>
       <c r="J37" t="n">
-        <v>163.1928094699209</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K37" t="n">
         <v>80.40428934589777</v>
@@ -30174,19 +30174,19 @@
         <v>78.34590850546634</v>
       </c>
       <c r="M37" t="n">
-        <v>79.93067970396667</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N37" t="n">
-        <v>71.58137972518439</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O37" t="n">
-        <v>82.78808566083804</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P37" t="n">
-        <v>86.48380385827528</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q37" t="n">
-        <v>105.4981853689493</v>
+        <v>180.3668729906172</v>
       </c>
       <c r="R37" t="n">
         <v>138.576149682035</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="C38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="D38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="E38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="F38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="G38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="H38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="I38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="J38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="K38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="L38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="M38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="N38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="O38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="P38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="R38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="S38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="T38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="U38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="V38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="W38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="X38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="Y38" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
     </row>
     <row r="39">
@@ -30332,19 +30332,19 @@
         <v>58.14149588130886</v>
       </c>
       <c r="M39" t="n">
-        <v>51.96206476056941</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N39" t="n">
-        <v>41.51206923517103</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O39" t="n">
-        <v>56.2113763383974</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P39" t="n">
-        <v>60.9813693583478</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q39" t="n">
-        <v>81.73346793160954</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R39" t="n">
         <v>102.7991627330203</v>
@@ -30402,7 +30402,7 @@
         <v>136.4403570291208</v>
       </c>
       <c r="J40" t="n">
-        <v>88.32412184825274</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K40" t="n">
         <v>80.40428934589777</v>
@@ -30411,40 +30411,40 @@
         <v>78.34590850546634</v>
       </c>
       <c r="M40" t="n">
-        <v>79.93067970396667</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N40" t="n">
-        <v>71.58137972518439</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O40" t="n">
-        <v>82.78808566083804</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P40" t="n">
-        <v>86.48380385827528</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q40" t="n">
         <v>105.4981853689493</v>
       </c>
       <c r="R40" t="n">
-        <v>138.576149682035</v>
+        <v>213.4448373037026</v>
       </c>
       <c r="S40" t="n">
-        <v>250.7836203105006</v>
+        <v>207.9098175327</v>
       </c>
       <c r="T40" t="n">
-        <v>250.7836203105006</v>
+        <v>229.9491259395436</v>
       </c>
       <c r="U40" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="V40" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="W40" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1003299364885</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
         <v>219.8148072196457</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="C41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="D41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="E41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="F41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="G41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="H41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="I41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="J41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="K41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="L41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="M41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="N41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="O41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="P41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="R41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="S41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="T41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="U41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="V41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="W41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="X41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="Y41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
     </row>
     <row r="42">
@@ -30569,19 +30569,19 @@
         <v>58.14149588130886</v>
       </c>
       <c r="M42" t="n">
-        <v>51.96206476056941</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N42" t="n">
-        <v>41.51206923517103</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O42" t="n">
-        <v>56.2113763383974</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P42" t="n">
-        <v>60.9813693583478</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q42" t="n">
-        <v>81.73346793160954</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R42" t="n">
         <v>102.7991627330203</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>181.719814997536</v>
+        <v>192.8802054704459</v>
       </c>
       <c r="C43" t="n">
         <v>167.9198098429365</v>
@@ -30639,7 +30639,7 @@
         <v>136.4403570291208</v>
       </c>
       <c r="J43" t="n">
-        <v>88.32412184825274</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K43" t="n">
         <v>80.40428934589777</v>
@@ -30648,16 +30648,16 @@
         <v>78.34590850546634</v>
       </c>
       <c r="M43" t="n">
-        <v>132.955686478712</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N43" t="n">
-        <v>71.58137972518439</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O43" t="n">
-        <v>82.78808566083804</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P43" t="n">
-        <v>86.48380385827528</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q43" t="n">
         <v>105.4981853689493</v>
@@ -30666,22 +30666,22 @@
         <v>138.576149682035</v>
       </c>
       <c r="S43" t="n">
-        <v>207.9098175327</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="T43" t="n">
-        <v>229.9491259395436</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="U43" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="V43" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="W43" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="X43" t="n">
-        <v>250.7836203105006</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
         <v>219.8148072196457</v>
@@ -30733,7 +30733,7 @@
         <v>250.7836203105006</v>
       </c>
       <c r="O44" t="n">
-        <v>250.7836203105003</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="P44" t="n">
         <v>250.7836203105006</v>
@@ -30806,19 +30806,19 @@
         <v>58.14149588130886</v>
       </c>
       <c r="M45" t="n">
-        <v>51.96206476056941</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N45" t="n">
-        <v>41.51206923517103</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O45" t="n">
-        <v>56.2113763383974</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P45" t="n">
-        <v>60.9813693583478</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q45" t="n">
-        <v>81.73346793160954</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R45" t="n">
         <v>102.7991627330203</v>
@@ -30876,7 +30876,7 @@
         <v>136.4403570291208</v>
       </c>
       <c r="J46" t="n">
-        <v>88.32412184825274</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K46" t="n">
         <v>80.40428934589777</v>
@@ -30885,16 +30885,16 @@
         <v>78.34590850546634</v>
       </c>
       <c r="M46" t="n">
-        <v>154.7993673256346</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N46" t="n">
-        <v>71.58137972518439</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O46" t="n">
-        <v>82.78808566083804</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P46" t="n">
-        <v>86.48380385827528</v>
+        <v>161.3524914799432</v>
       </c>
       <c r="Q46" t="n">
         <v>105.4981853689493</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H11" t="n">
-        <v>4.798620783773641</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I11" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J11" t="n">
-        <v>39.76828421792343</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K11" t="n">
-        <v>59.60234917846422</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L11" t="n">
-        <v>73.94198455611955</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M11" t="n">
-        <v>82.27470491383315</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N11" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O11" t="n">
-        <v>78.9467709100004</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P11" t="n">
-        <v>67.37924247358767</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q11" t="n">
-        <v>50.59900502025984</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R11" t="n">
-        <v>29.43306362101513</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S11" t="n">
         <v>10.67726802004071</v>
       </c>
       <c r="T11" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,40 +31832,40 @@
         <v>0.2507006927236294</v>
       </c>
       <c r="H12" t="n">
-        <v>2.421240900778211</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I12" t="n">
-        <v>8.631580867896892</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J12" t="n">
         <v>23.68571764017413</v>
       </c>
       <c r="K12" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L12" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M12" t="n">
-        <v>63.52183780107048</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N12" t="n">
-        <v>65.20307183253729</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O12" t="n">
-        <v>59.6480722727137</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P12" t="n">
-        <v>47.87283666579552</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q12" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R12" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S12" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T12" t="n">
         <v>1.010499721986909</v>
@@ -31914,7 +31914,7 @@
         <v>1.868682730318754</v>
       </c>
       <c r="I13" t="n">
-        <v>6.320656924227439</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J13" t="n">
         <v>14.85965807125658</v>
@@ -31926,13 +31926,13 @@
         <v>31.24789097303976</v>
       </c>
       <c r="M13" t="n">
-        <v>32.94651975346243</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N13" t="n">
-        <v>32.16312515281757</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O13" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P13" t="n">
         <v>25.42019943165713</v>
@@ -31941,16 +31941,16 @@
         <v>17.59962845497549</v>
       </c>
       <c r="R13" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S13" t="n">
-        <v>3.662847437649333</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8980377129343696</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H14" t="n">
-        <v>4.798620783773641</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I14" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J14" t="n">
-        <v>39.76828421792343</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K14" t="n">
-        <v>59.60234917846422</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L14" t="n">
-        <v>73.94198455611955</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M14" t="n">
-        <v>82.27470491383315</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N14" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O14" t="n">
-        <v>78.9467709100004</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P14" t="n">
-        <v>67.37924247358767</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q14" t="n">
-        <v>50.59900502025984</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R14" t="n">
-        <v>29.43306362101513</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S14" t="n">
         <v>10.67726802004071</v>
       </c>
       <c r="T14" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,40 +32069,40 @@
         <v>0.2507006927236294</v>
       </c>
       <c r="H15" t="n">
-        <v>2.421240900778211</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I15" t="n">
-        <v>8.631580867896892</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J15" t="n">
         <v>23.68571764017413</v>
       </c>
       <c r="K15" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L15" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M15" t="n">
-        <v>63.52183780107048</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N15" t="n">
-        <v>65.20307183253729</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O15" t="n">
-        <v>59.6480722727137</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P15" t="n">
-        <v>47.87283666579552</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R15" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S15" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T15" t="n">
         <v>1.010499721986909</v>
@@ -32151,7 +32151,7 @@
         <v>1.868682730318754</v>
       </c>
       <c r="I16" t="n">
-        <v>6.320656924227439</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J16" t="n">
         <v>14.85965807125658</v>
@@ -32163,13 +32163,13 @@
         <v>31.24789097303976</v>
       </c>
       <c r="M16" t="n">
-        <v>32.94651975346243</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N16" t="n">
-        <v>32.16312515281757</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O16" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P16" t="n">
         <v>25.42019943165713</v>
@@ -32178,16 +32178,16 @@
         <v>17.59962845497549</v>
       </c>
       <c r="R16" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S16" t="n">
-        <v>3.662847437649333</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8980377129343696</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H17" t="n">
-        <v>4.798620783773641</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I17" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J17" t="n">
-        <v>39.76828421792343</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K17" t="n">
-        <v>59.60234917846422</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L17" t="n">
-        <v>73.94198455611955</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M17" t="n">
-        <v>82.27470491383315</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N17" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O17" t="n">
-        <v>78.9467709100004</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P17" t="n">
-        <v>67.37924247358767</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.59900502025984</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R17" t="n">
-        <v>29.43306362101513</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S17" t="n">
         <v>10.67726802004071</v>
       </c>
       <c r="T17" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,40 +32306,40 @@
         <v>0.2507006927236294</v>
       </c>
       <c r="H18" t="n">
-        <v>2.421240900778211</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I18" t="n">
-        <v>8.631580867896892</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J18" t="n">
         <v>23.68571764017413</v>
       </c>
       <c r="K18" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L18" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M18" t="n">
-        <v>63.52183780107048</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N18" t="n">
-        <v>65.20307183253729</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O18" t="n">
-        <v>59.6480722727137</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P18" t="n">
-        <v>47.87283666579552</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R18" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S18" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T18" t="n">
         <v>1.010499721986909</v>
@@ -32388,7 +32388,7 @@
         <v>1.868682730318754</v>
       </c>
       <c r="I19" t="n">
-        <v>6.320656924227439</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J19" t="n">
         <v>14.85965807125658</v>
@@ -32400,13 +32400,13 @@
         <v>31.24789097303976</v>
       </c>
       <c r="M19" t="n">
-        <v>32.94651975346243</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N19" t="n">
-        <v>32.16312515281757</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O19" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P19" t="n">
         <v>25.42019943165713</v>
@@ -32415,16 +32415,16 @@
         <v>17.59962845497549</v>
       </c>
       <c r="R19" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S19" t="n">
-        <v>3.662847437649333</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8980377129343696</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H20" t="n">
-        <v>4.798620783773641</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I20" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J20" t="n">
-        <v>39.76828421792343</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K20" t="n">
-        <v>59.60234917846422</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L20" t="n">
-        <v>73.94198455611955</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M20" t="n">
-        <v>82.27470491383315</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N20" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O20" t="n">
-        <v>78.9467709100004</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P20" t="n">
-        <v>67.37924247358767</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q20" t="n">
-        <v>50.59900502025984</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R20" t="n">
-        <v>29.43306362101513</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S20" t="n">
         <v>10.67726802004071</v>
       </c>
       <c r="T20" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,40 +32543,40 @@
         <v>0.2507006927236294</v>
       </c>
       <c r="H21" t="n">
-        <v>2.421240900778211</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I21" t="n">
-        <v>8.631580867896892</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J21" t="n">
         <v>23.68571764017413</v>
       </c>
       <c r="K21" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L21" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M21" t="n">
-        <v>63.52183780107048</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N21" t="n">
-        <v>65.20307183253729</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O21" t="n">
-        <v>59.6480722727137</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P21" t="n">
-        <v>47.87283666579552</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q21" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R21" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S21" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T21" t="n">
         <v>1.010499721986909</v>
@@ -32625,7 +32625,7 @@
         <v>1.868682730318754</v>
       </c>
       <c r="I22" t="n">
-        <v>6.320656924227439</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J22" t="n">
         <v>14.85965807125658</v>
@@ -32637,13 +32637,13 @@
         <v>31.24789097303976</v>
       </c>
       <c r="M22" t="n">
-        <v>32.94651975346243</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N22" t="n">
-        <v>32.16312515281757</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O22" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P22" t="n">
         <v>25.42019943165713</v>
@@ -32652,16 +32652,16 @@
         <v>17.59962845497549</v>
       </c>
       <c r="R22" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S22" t="n">
-        <v>3.662847437649333</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8980377129343696</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H23" t="n">
-        <v>4.798620783773641</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I23" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J23" t="n">
-        <v>39.76828421792343</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K23" t="n">
-        <v>59.60234917846422</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L23" t="n">
-        <v>73.94198455611955</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M23" t="n">
-        <v>82.27470491383315</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N23" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O23" t="n">
-        <v>78.9467709100004</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P23" t="n">
-        <v>67.37924247358767</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q23" t="n">
-        <v>50.59900502025984</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R23" t="n">
-        <v>29.43306362101513</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S23" t="n">
         <v>10.67726802004071</v>
       </c>
       <c r="T23" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,40 +32780,40 @@
         <v>0.2507006927236294</v>
       </c>
       <c r="H24" t="n">
-        <v>2.421240900778211</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I24" t="n">
-        <v>8.631580867896892</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J24" t="n">
         <v>23.68571764017413</v>
       </c>
       <c r="K24" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L24" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M24" t="n">
-        <v>63.52183780107048</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N24" t="n">
-        <v>65.20307183253729</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O24" t="n">
-        <v>59.6480722727137</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P24" t="n">
-        <v>47.87283666579552</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q24" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R24" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S24" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T24" t="n">
         <v>1.010499721986909</v>
@@ -32862,7 +32862,7 @@
         <v>1.868682730318754</v>
       </c>
       <c r="I25" t="n">
-        <v>6.320656924227439</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J25" t="n">
         <v>14.85965807125658</v>
@@ -32874,13 +32874,13 @@
         <v>31.24789097303976</v>
       </c>
       <c r="M25" t="n">
-        <v>32.94651975346243</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N25" t="n">
-        <v>32.16312515281757</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O25" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P25" t="n">
         <v>25.42019943165713</v>
@@ -32889,16 +32889,16 @@
         <v>17.59962845497549</v>
       </c>
       <c r="R25" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S25" t="n">
-        <v>3.662847437649333</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8980377129343696</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H26" t="n">
-        <v>4.798620783773641</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I26" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J26" t="n">
-        <v>39.76828421792343</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K26" t="n">
-        <v>59.60234917846422</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L26" t="n">
-        <v>73.94198455611955</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M26" t="n">
-        <v>82.27470491383315</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N26" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O26" t="n">
-        <v>78.9467709100004</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P26" t="n">
-        <v>67.37924247358767</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q26" t="n">
-        <v>50.59900502025984</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R26" t="n">
-        <v>29.43306362101513</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S26" t="n">
         <v>10.67726802004071</v>
       </c>
       <c r="T26" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,40 +33017,40 @@
         <v>0.2507006927236294</v>
       </c>
       <c r="H27" t="n">
-        <v>2.421240900778211</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I27" t="n">
-        <v>8.631580867896892</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J27" t="n">
         <v>23.68571764017413</v>
       </c>
       <c r="K27" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L27" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M27" t="n">
-        <v>63.52183780107048</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N27" t="n">
-        <v>65.20307183253729</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O27" t="n">
-        <v>59.6480722727137</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P27" t="n">
-        <v>47.87283666579552</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R27" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S27" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T27" t="n">
         <v>1.010499721986909</v>
@@ -33099,7 +33099,7 @@
         <v>1.868682730318754</v>
       </c>
       <c r="I28" t="n">
-        <v>6.320656924227439</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J28" t="n">
         <v>14.85965807125658</v>
@@ -33111,13 +33111,13 @@
         <v>31.24789097303976</v>
       </c>
       <c r="M28" t="n">
-        <v>32.94651975346243</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N28" t="n">
-        <v>32.16312515281757</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O28" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P28" t="n">
         <v>25.42019943165713</v>
@@ -33126,16 +33126,16 @@
         <v>17.59962845497549</v>
       </c>
       <c r="R28" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S28" t="n">
-        <v>3.662847437649333</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8980377129343696</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H29" t="n">
-        <v>4.798620783773641</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I29" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J29" t="n">
-        <v>39.76828421792343</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K29" t="n">
-        <v>59.60234917846422</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L29" t="n">
-        <v>73.94198455611955</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M29" t="n">
-        <v>82.27470491383315</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N29" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O29" t="n">
-        <v>78.9467709100004</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P29" t="n">
-        <v>67.37924247358767</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q29" t="n">
-        <v>50.59900502025984</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R29" t="n">
-        <v>29.43306362101513</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S29" t="n">
         <v>10.67726802004071</v>
       </c>
       <c r="T29" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,40 +33254,40 @@
         <v>0.2507006927236294</v>
       </c>
       <c r="H30" t="n">
-        <v>2.421240900778211</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I30" t="n">
-        <v>8.631580867896892</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J30" t="n">
         <v>23.68571764017413</v>
       </c>
       <c r="K30" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L30" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M30" t="n">
-        <v>63.52183780107048</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N30" t="n">
-        <v>65.20307183253729</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O30" t="n">
-        <v>59.6480722727137</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P30" t="n">
-        <v>47.87283666579552</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R30" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S30" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T30" t="n">
         <v>1.010499721986909</v>
@@ -33336,7 +33336,7 @@
         <v>1.868682730318754</v>
       </c>
       <c r="I31" t="n">
-        <v>6.320656924227439</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J31" t="n">
         <v>14.85965807125658</v>
@@ -33348,13 +33348,13 @@
         <v>31.24789097303976</v>
       </c>
       <c r="M31" t="n">
-        <v>32.94651975346243</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N31" t="n">
-        <v>32.16312515281757</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O31" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P31" t="n">
         <v>25.42019943165713</v>
@@ -33363,16 +33363,16 @@
         <v>17.59962845497549</v>
       </c>
       <c r="R31" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S31" t="n">
-        <v>3.662847437649333</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8980377129343696</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H32" t="n">
-        <v>4.798620783773641</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I32" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J32" t="n">
-        <v>39.76828421792343</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K32" t="n">
-        <v>59.60234917846422</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L32" t="n">
-        <v>73.94198455611955</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M32" t="n">
-        <v>82.27470491383315</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N32" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O32" t="n">
-        <v>78.9467709100004</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P32" t="n">
-        <v>67.37924247358767</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q32" t="n">
-        <v>50.59900502025984</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R32" t="n">
-        <v>29.43306362101513</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S32" t="n">
         <v>10.67726802004071</v>
       </c>
       <c r="T32" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,40 +33491,40 @@
         <v>0.2507006927236294</v>
       </c>
       <c r="H33" t="n">
-        <v>2.421240900778211</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I33" t="n">
-        <v>8.631580867896892</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J33" t="n">
         <v>23.68571764017413</v>
       </c>
       <c r="K33" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L33" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M33" t="n">
-        <v>63.52183780107048</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N33" t="n">
-        <v>65.20307183253729</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O33" t="n">
-        <v>59.6480722727137</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P33" t="n">
-        <v>47.87283666579552</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R33" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S33" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T33" t="n">
         <v>1.010499721986909</v>
@@ -33573,7 +33573,7 @@
         <v>1.868682730318754</v>
       </c>
       <c r="I34" t="n">
-        <v>6.320656924227439</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J34" t="n">
         <v>14.85965807125658</v>
@@ -33585,13 +33585,13 @@
         <v>31.24789097303976</v>
       </c>
       <c r="M34" t="n">
-        <v>32.94651975346243</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N34" t="n">
-        <v>32.16312515281757</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O34" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P34" t="n">
         <v>25.42019943165713</v>
@@ -33600,16 +33600,16 @@
         <v>17.59962845497549</v>
       </c>
       <c r="R34" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S34" t="n">
-        <v>3.662847437649333</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8980377129343696</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H35" t="n">
-        <v>4.798620783773641</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I35" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J35" t="n">
-        <v>39.76828421792343</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K35" t="n">
-        <v>59.60234917846422</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L35" t="n">
-        <v>73.94198455611955</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M35" t="n">
-        <v>82.27470491383315</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N35" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O35" t="n">
-        <v>78.9467709100004</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P35" t="n">
-        <v>67.37924247358767</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q35" t="n">
-        <v>50.59900502025984</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R35" t="n">
-        <v>29.43306362101513</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S35" t="n">
         <v>10.67726802004071</v>
       </c>
       <c r="T35" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,40 +33728,40 @@
         <v>0.2507006927236294</v>
       </c>
       <c r="H36" t="n">
-        <v>2.421240900778211</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I36" t="n">
-        <v>8.631580867896892</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J36" t="n">
         <v>23.68571764017413</v>
       </c>
       <c r="K36" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L36" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M36" t="n">
-        <v>63.52183780107048</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N36" t="n">
-        <v>65.20307183253729</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O36" t="n">
-        <v>59.6480722727137</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P36" t="n">
-        <v>47.87283666579552</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q36" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R36" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S36" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T36" t="n">
         <v>1.010499721986909</v>
@@ -33810,7 +33810,7 @@
         <v>1.868682730318754</v>
       </c>
       <c r="I37" t="n">
-        <v>6.320656924227439</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J37" t="n">
         <v>14.85965807125658</v>
@@ -33822,13 +33822,13 @@
         <v>31.24789097303976</v>
       </c>
       <c r="M37" t="n">
-        <v>32.94651975346243</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N37" t="n">
-        <v>32.16312515281757</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O37" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P37" t="n">
         <v>25.42019943165713</v>
@@ -33837,16 +33837,16 @@
         <v>17.59962845497549</v>
       </c>
       <c r="R37" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S37" t="n">
-        <v>3.662847437649333</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8980377129343696</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H38" t="n">
-        <v>4.798620783773641</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I38" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J38" t="n">
-        <v>39.76828421792343</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K38" t="n">
-        <v>59.60234917846422</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L38" t="n">
-        <v>73.94198455611955</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M38" t="n">
-        <v>82.27470491383315</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N38" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O38" t="n">
-        <v>78.9467709100004</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P38" t="n">
-        <v>67.37924247358767</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q38" t="n">
-        <v>50.59900502025984</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R38" t="n">
-        <v>29.43306362101513</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S38" t="n">
         <v>10.67726802004071</v>
       </c>
       <c r="T38" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,40 +33965,40 @@
         <v>0.2507006927236294</v>
       </c>
       <c r="H39" t="n">
-        <v>2.421240900778211</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I39" t="n">
-        <v>8.631580867896892</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J39" t="n">
         <v>23.68571764017413</v>
       </c>
       <c r="K39" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L39" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M39" t="n">
-        <v>63.52183780107048</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N39" t="n">
-        <v>65.20307183253729</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O39" t="n">
-        <v>59.6480722727137</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P39" t="n">
-        <v>47.87283666579552</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q39" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R39" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S39" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T39" t="n">
         <v>1.010499721986909</v>
@@ -34047,7 +34047,7 @@
         <v>1.868682730318754</v>
       </c>
       <c r="I40" t="n">
-        <v>6.320656924227439</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J40" t="n">
         <v>14.85965807125658</v>
@@ -34059,13 +34059,13 @@
         <v>31.24789097303976</v>
       </c>
       <c r="M40" t="n">
-        <v>32.94651975346243</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N40" t="n">
-        <v>32.16312515281757</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O40" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P40" t="n">
         <v>25.42019943165713</v>
@@ -34074,16 +34074,16 @@
         <v>17.59962845497549</v>
       </c>
       <c r="R40" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S40" t="n">
-        <v>3.662847437649333</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8980377129343696</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H41" t="n">
-        <v>4.798620783773641</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I41" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J41" t="n">
-        <v>39.76828421792343</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K41" t="n">
-        <v>59.60234917846422</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L41" t="n">
-        <v>73.94198455611955</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M41" t="n">
-        <v>82.27470491383315</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N41" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O41" t="n">
-        <v>78.9467709100004</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P41" t="n">
-        <v>67.37924247358767</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q41" t="n">
-        <v>50.59900502025984</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R41" t="n">
-        <v>29.43306362101513</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S41" t="n">
         <v>10.67726802004071</v>
       </c>
       <c r="T41" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,40 +34202,40 @@
         <v>0.2507006927236294</v>
       </c>
       <c r="H42" t="n">
-        <v>2.421240900778211</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I42" t="n">
-        <v>8.631580867896892</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J42" t="n">
         <v>23.68571764017413</v>
       </c>
       <c r="K42" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L42" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M42" t="n">
-        <v>63.52183780107048</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N42" t="n">
-        <v>65.20307183253729</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O42" t="n">
-        <v>59.6480722727137</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P42" t="n">
-        <v>47.87283666579552</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q42" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R42" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S42" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T42" t="n">
         <v>1.010499721986909</v>
@@ -34284,7 +34284,7 @@
         <v>1.868682730318754</v>
       </c>
       <c r="I43" t="n">
-        <v>6.320656924227439</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J43" t="n">
         <v>14.85965807125658</v>
@@ -34296,13 +34296,13 @@
         <v>31.24789097303976</v>
       </c>
       <c r="M43" t="n">
-        <v>32.94651975346243</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N43" t="n">
-        <v>32.16312515281757</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O43" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P43" t="n">
         <v>25.42019943165713</v>
@@ -34311,16 +34311,16 @@
         <v>17.59962845497549</v>
       </c>
       <c r="R43" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S43" t="n">
-        <v>3.662847437649333</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8980377129343696</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H44" t="n">
-        <v>4.798620783773641</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I44" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535905</v>
       </c>
       <c r="J44" t="n">
-        <v>39.76828421792343</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K44" t="n">
-        <v>59.60234917846422</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L44" t="n">
-        <v>73.94198455611955</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M44" t="n">
-        <v>82.27470491383315</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N44" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O44" t="n">
-        <v>78.9467709100004</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P44" t="n">
-        <v>67.37924247358767</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q44" t="n">
-        <v>50.59900502025984</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R44" t="n">
-        <v>29.43306362101513</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S44" t="n">
         <v>10.67726802004071</v>
       </c>
       <c r="T44" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,40 +34439,40 @@
         <v>0.2507006927236294</v>
       </c>
       <c r="H45" t="n">
-        <v>2.421240900778211</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I45" t="n">
-        <v>8.631580867896892</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J45" t="n">
         <v>23.68571764017413</v>
       </c>
       <c r="K45" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L45" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M45" t="n">
-        <v>63.52183780107048</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N45" t="n">
-        <v>65.20307183253729</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O45" t="n">
-        <v>59.6480722727137</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P45" t="n">
-        <v>47.87283666579552</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R45" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770043</v>
       </c>
       <c r="S45" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T45" t="n">
         <v>1.010499721986909</v>
@@ -34521,7 +34521,7 @@
         <v>1.868682730318754</v>
       </c>
       <c r="I46" t="n">
-        <v>6.320656924227439</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J46" t="n">
         <v>14.85965807125658</v>
@@ -34533,13 +34533,13 @@
         <v>31.24789097303976</v>
       </c>
       <c r="M46" t="n">
-        <v>32.94651975346243</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N46" t="n">
-        <v>32.16312515281757</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O46" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P46" t="n">
         <v>25.42019943165713</v>
@@ -34548,16 +34548,16 @@
         <v>17.59962845497549</v>
       </c>
       <c r="R46" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S46" t="n">
-        <v>3.662847437649333</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8980377129343696</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,40 +35404,40 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>67.0393035448563</v>
+        <v>67.03930354485612</v>
       </c>
       <c r="J11" t="n">
-        <v>112.73273045278</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>100.8435888672065</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>102.4460160557939</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>115.1826340794631</v>
       </c>
       <c r="N11" t="n">
-        <v>117.2721251454538</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>14.36868658357839</v>
+        <v>112.0562177926689</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.0398756600588</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>74.33405780982196</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>45.38482606688032</v>
+        <v>23.6038449234422</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.838529328779259e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -35468,7 +35468,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>25.39117343086834</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>25.39117343086868</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35544,7 +35544,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>52.14443381985251</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -35568,10 +35568,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>131.6224207170399</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>4.272640166377791</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -35586,10 +35586,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>114.5660582938399</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>73.47343640942944</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>67.0393035448563</v>
+        <v>67.03930354485632</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>112.73273045278</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>6.931376224408488</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>115.1826340794633</v>
       </c>
       <c r="N14" t="n">
-        <v>32.75064730392273</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>112.0562177926691</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>99.56667708522035</v>
+        <v>99.56667708522036</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.0398756600588</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>74.33405780982196</v>
+        <v>74.33405780982199</v>
       </c>
       <c r="S14" t="n">
-        <v>45.38482606688032</v>
+        <v>45.38482606688034</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35714,7 +35714,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>25.39117343086834</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>25.39117343086827</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35781,13 +35781,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>52.14443381985268</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>68.52306942227429</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>67.3719914611424</v>
+        <v>69.57531956649487</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35814,7 +35814,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>118.4641751367744</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35875,10 +35875,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.222581945281332</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>131.6224207170396</v>
+        <v>131.6224207170399</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35902,19 +35902,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.23337818055066</v>
+        <v>131.6224207170399</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>16.45156395492865</v>
       </c>
       <c r="S17" t="n">
-        <v>131.6224207170396</v>
+        <v>131.6224207170399</v>
       </c>
       <c r="T17" t="n">
         <v>109.8527791573823</v>
       </c>
       <c r="U17" t="n">
-        <v>77.618024546136</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36112,19 +36112,19 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.222581945281332</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>131.6224207170396</v>
+        <v>48.68631856617495</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>131.6224207170399</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>131.6224207170399</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>131.6224207170399</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36139,13 +36139,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.6224207170396</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>131.6224207170396</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>43.46373662089334</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -36349,7 +36349,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.222581945281332</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>70.4559601258328</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36376,19 +36376,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.23337818055082</v>
+        <v>131.6224207170399</v>
       </c>
       <c r="R23" t="n">
-        <v>131.6224207170397</v>
+        <v>131.6224207170399</v>
       </c>
       <c r="S23" t="n">
-        <v>131.6224207170397</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>109.8527791573823</v>
+        <v>109.8527791573822</v>
       </c>
       <c r="U23" t="n">
-        <v>77.618024546136</v>
+        <v>77.61802454613589</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>56.10332119515252</v>
+        <v>56.10332119515245</v>
       </c>
       <c r="J26" t="n">
-        <v>101.7967481030762</v>
+        <v>321.6223478267721</v>
       </c>
       <c r="K26" t="n">
-        <v>302.1683815469316</v>
+        <v>310.2121179931531</v>
       </c>
       <c r="L26" t="n">
-        <v>485.0618307958211</v>
+        <v>486.5906009745436</v>
       </c>
       <c r="M26" t="n">
-        <v>104.2466517297595</v>
+        <v>104.2466517297594</v>
       </c>
       <c r="N26" t="n">
-        <v>106.33614279575</v>
+        <v>106.3361427957499</v>
       </c>
       <c r="O26" t="n">
-        <v>101.1202354429653</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>486.5906009745433</v>
+        <v>88.6306947355165</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>355.1133811682311</v>
       </c>
       <c r="R26" t="n">
-        <v>148.8294212949953</v>
+        <v>63.39807546011812</v>
       </c>
       <c r="S26" t="n">
-        <v>34.44884371717654</v>
+        <v>34.44884371717648</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>55.01779765020177</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36698,10 +36698,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>31.67728941080393</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>23.34050823939767</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -36747,7 +36747,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>51.30984109297848</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>132.8712034985544</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36768,13 +36768,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>254.7331562225829</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>70.55211163105039</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>56.10332119515252</v>
+        <v>56.10332119515234</v>
       </c>
       <c r="J29" t="n">
-        <v>101.7967481030762</v>
+        <v>321.6223478267719</v>
       </c>
       <c r="K29" t="n">
-        <v>486.5906009745432</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>91.51003370609034</v>
+        <v>91.51003370609016</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1402014291859</v>
+        <v>104.2466517297593</v>
       </c>
       <c r="N29" t="n">
-        <v>106.33614279575</v>
+        <v>106.3361427957498</v>
       </c>
       <c r="O29" t="n">
-        <v>387.0322097714488</v>
+        <v>370.7308544826984</v>
       </c>
       <c r="P29" t="n">
-        <v>88.63069473551657</v>
+        <v>486.5906009745436</v>
       </c>
       <c r="Q29" t="n">
-        <v>355.1133811682311</v>
+        <v>355.1133811682309</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>34.44884371717654</v>
+        <v>34.44884371717637</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>31.67728941080463</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36932,13 +36932,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>55.01779765020159</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>23.3405082393975</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>125.5670756077737</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -36999,10 +36999,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>254.7331562225839</v>
       </c>
       <c r="O31" t="n">
-        <v>129.1660806148092</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>56.10332119515252</v>
+        <v>56.10332119515234</v>
       </c>
       <c r="J32" t="n">
-        <v>321.6223478267722</v>
+        <v>321.6223478267719</v>
       </c>
       <c r="K32" t="n">
-        <v>486.5906009745432</v>
+        <v>224.7824535671184</v>
       </c>
       <c r="L32" t="n">
-        <v>91.51003370609034</v>
+        <v>486.5906009745436</v>
       </c>
       <c r="M32" t="n">
-        <v>104.2466517297595</v>
+        <v>486.5906009745436</v>
       </c>
       <c r="N32" t="n">
-        <v>106.33614279575</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>239.2536346763837</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>486.5906009745432</v>
+        <v>88.63069473551639</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>79.10389331035483</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>148.8294212949952</v>
       </c>
       <c r="S32" t="n">
-        <v>34.44884371717654</v>
+        <v>34.44884371717637</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37139,10 +37139,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>55.01779765020213</v>
       </c>
       <c r="I33" t="n">
-        <v>55.01779765020159</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37212,10 +37212,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>53.3986917839148</v>
       </c>
       <c r="G34" t="n">
-        <v>42.10788920645432</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37230,13 +37230,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>130.7823528076189</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>212.6252670161286</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>70.55211163105028</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>97.75868019256768</v>
+        <v>97.75868019256774</v>
       </c>
       <c r="J35" t="n">
         <v>143.4521071004914</v>
@@ -37312,7 +37312,7 @@
         <v>133.1653927035055</v>
       </c>
       <c r="M35" t="n">
-        <v>145.9020107271746</v>
+        <v>145.9020107271747</v>
       </c>
       <c r="N35" t="n">
         <v>147.9915017931652</v>
@@ -37321,19 +37321,19 @@
         <v>142.7755944403805</v>
       </c>
       <c r="P35" t="n">
-        <v>130.2860537329323</v>
+        <v>130.2860537329318</v>
       </c>
       <c r="Q35" t="n">
         <v>120.7592523077702</v>
       </c>
       <c r="R35" t="n">
-        <v>105.0534344575333</v>
+        <v>105.0534344575334</v>
       </c>
       <c r="S35" t="n">
-        <v>76.10420271459171</v>
+        <v>76.10420271459176</v>
       </c>
       <c r="T35" t="n">
-        <v>30.71937664771137</v>
+        <v>30.71937664771144</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>74.86868762166814</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>74.86868762166796</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>97.75868019256768</v>
+        <v>97.75868019256785</v>
       </c>
       <c r="J38" t="n">
-        <v>143.4521071004914</v>
+        <v>143.4521071004915</v>
       </c>
       <c r="K38" t="n">
-        <v>131.5629655149181</v>
+        <v>131.5629655149182</v>
       </c>
       <c r="L38" t="n">
-        <v>133.1653927035055</v>
+        <v>133.1653927035057</v>
       </c>
       <c r="M38" t="n">
-        <v>145.9020107271746</v>
+        <v>145.9020107271725</v>
       </c>
       <c r="N38" t="n">
-        <v>147.9915017931652</v>
+        <v>147.9915017931653</v>
       </c>
       <c r="O38" t="n">
-        <v>142.7755944403805</v>
+        <v>142.7755944403806</v>
       </c>
       <c r="P38" t="n">
-        <v>130.2860537329317</v>
+        <v>130.2860537329319</v>
       </c>
       <c r="Q38" t="n">
-        <v>120.7592523077708</v>
+        <v>120.7592523077703</v>
       </c>
       <c r="R38" t="n">
-        <v>105.0534344575333</v>
+        <v>105.0534344575335</v>
       </c>
       <c r="S38" t="n">
-        <v>76.10420271459171</v>
+        <v>76.10420271459188</v>
       </c>
       <c r="T38" t="n">
-        <v>30.71937664771137</v>
+        <v>30.71937664771154</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37722,13 +37722,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>74.86868762166762</v>
       </c>
       <c r="S40" t="n">
-        <v>42.87380277780059</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>20.83449437095699</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37740,7 +37740,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>11.16039047291056</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>97.75868019256774</v>
+        <v>97.75868019256782</v>
       </c>
       <c r="J41" t="n">
-        <v>143.4521071004914</v>
+        <v>143.4521071004905</v>
       </c>
       <c r="K41" t="n">
-        <v>131.5629655149181</v>
+        <v>131.5629655149182</v>
       </c>
       <c r="L41" t="n">
         <v>133.1653927035056</v>
@@ -37789,25 +37789,25 @@
         <v>145.9020107271747</v>
       </c>
       <c r="N41" t="n">
-        <v>147.9915017931652</v>
+        <v>147.9915017931653</v>
       </c>
       <c r="O41" t="n">
         <v>142.7755944403806</v>
       </c>
       <c r="P41" t="n">
-        <v>130.2860537329318</v>
+        <v>130.2860537329319</v>
       </c>
       <c r="Q41" t="n">
-        <v>120.7592523077702</v>
+        <v>120.7592523077703</v>
       </c>
       <c r="R41" t="n">
-        <v>105.0534344575334</v>
+        <v>105.0534344575335</v>
       </c>
       <c r="S41" t="n">
-        <v>76.10420271459176</v>
+        <v>76.10420271459185</v>
       </c>
       <c r="T41" t="n">
-        <v>30.71937664771144</v>
+        <v>30.71937664771151</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>11.16039047290984</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>53.02500677474533</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -37962,10 +37962,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>42.87380277780073</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>20.83449437095713</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -37977,7 +37977,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>21.84368084692264</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>143.4521071004914</v>
       </c>
       <c r="K44" t="n">
-        <v>131.5629655149181</v>
+        <v>131.5629655149185</v>
       </c>
       <c r="L44" t="n">
-        <v>133.1653927035056</v>
+        <v>133.1653927035055</v>
       </c>
       <c r="M44" t="n">
         <v>145.9020107271747</v>
@@ -38029,7 +38029,7 @@
         <v>147.9915017931652</v>
       </c>
       <c r="O44" t="n">
-        <v>142.7755944403803</v>
+        <v>142.7755944403805</v>
       </c>
       <c r="P44" t="n">
         <v>130.2860537329318</v>
@@ -38181,16 +38181,16 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
         <v>74.86868762166796</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
